--- a/用例数据/沪A/普通买卖/股票买入虚拟股东/测试结果.xlsx
+++ b/用例数据/沪A/普通买卖/股票买入虚拟股东/测试结果.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\沪A\普通买卖\股票买入虚拟股东\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25860" windowHeight="9420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="402">
   <si>
     <t>EXCHID</t>
   </si>
@@ -806,9 +811,6 @@
     <t>Level1</t>
   </si>
   <si>
-    <t>5482358.800</t>
-  </si>
-  <si>
     <t>1000132.400</t>
   </si>
   <si>
@@ -1136,18 +1138,9 @@
     <t>SECONDOTHERFEE</t>
   </si>
   <si>
-    <t>30300067</t>
-  </si>
-  <si>
     <t>005_001_001</t>
   </si>
   <si>
-    <t>20210116141938</t>
-  </si>
-  <si>
-    <t>20210116095210</t>
-  </si>
-  <si>
     <t>0000860197</t>
   </si>
   <si>
@@ -1193,9 +1186,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>20210116095209</t>
-  </si>
-  <si>
     <t>000005974664</t>
   </si>
   <si>
@@ -1215,19 +1205,37 @@
   </si>
   <si>
     <t>001</t>
+  </si>
+  <si>
+    <t>20221007000000</t>
+  </si>
+  <si>
+    <t>20211212000000</t>
+  </si>
+  <si>
+    <t>88706339.600</t>
+  </si>
+  <si>
+    <t>30051529</t>
+  </si>
+  <si>
+    <t>20221007203249</t>
+  </si>
+  <si>
+    <t>20221007095210</t>
+  </si>
+  <si>
+    <t>20221007095209</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,352 +1244,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1589,311 +1267,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2180,27 +1572,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CE8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="11.8796296296296" customWidth="1"/>
-    <col min="4" max="4" width="14.3796296296296" customWidth="1"/>
-    <col min="5" max="5" width="13.8796296296296" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:83">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2451,7 +1843,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:83">
+    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2699,101 +2091,98 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
+    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BX9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="7.66666666666667" customWidth="1"/>
-    <col min="3" max="4" width="14.1111111111111" customWidth="1"/>
-    <col min="5" max="5" width="11.8888888888889" customWidth="1"/>
-    <col min="6" max="6" width="16.4444444444444" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="7.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="20.8888888888889" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="3" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="7.625" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="20.875" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.1111111111111" customWidth="1"/>
-    <col min="13" max="13" width="9.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="16.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="10.7777777777778" customWidth="1"/>
-    <col min="16" max="16" width="11.8888888888889" customWidth="1"/>
-    <col min="17" max="18" width="15.2222222222222" customWidth="1"/>
-    <col min="19" max="19" width="14.1111111111111" customWidth="1"/>
-    <col min="20" max="20" width="17.5555555555556" customWidth="1"/>
-    <col min="21" max="21" width="14.1111111111111" customWidth="1"/>
-    <col min="22" max="22" width="16.4444444444444" customWidth="1"/>
-    <col min="23" max="23" width="11.8888888888889" customWidth="1"/>
-    <col min="24" max="24" width="8.66666666666667" customWidth="1"/>
-    <col min="25" max="25" width="10.7777777777778" customWidth="1"/>
-    <col min="26" max="26" width="7.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="17.5555555555556" customWidth="1"/>
-    <col min="28" max="28" width="9.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="15.2222222222222" customWidth="1"/>
-    <col min="30" max="30" width="10.7777777777778" customWidth="1"/>
-    <col min="31" max="31" width="15.2222222222222" customWidth="1"/>
+    <col min="12" max="12" width="14.125" customWidth="1"/>
+    <col min="13" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="10.75" customWidth="1"/>
+    <col min="16" max="16" width="11.875" customWidth="1"/>
+    <col min="17" max="18" width="15.25" customWidth="1"/>
+    <col min="19" max="19" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="17.5" customWidth="1"/>
+    <col min="21" max="21" width="14.125" customWidth="1"/>
+    <col min="22" max="22" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1"/>
+    <col min="24" max="24" width="8.625" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="7.625" customWidth="1"/>
+    <col min="27" max="27" width="17.5" customWidth="1"/>
+    <col min="28" max="28" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="10.75" customWidth="1"/>
+    <col min="31" max="31" width="15.25" customWidth="1"/>
     <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.8888888888889" customWidth="1"/>
-    <col min="34" max="34" width="20.8888888888889" customWidth="1"/>
-    <col min="35" max="35" width="24.2222222222222" customWidth="1"/>
-    <col min="36" max="36" width="23.1111111111111" customWidth="1"/>
+    <col min="33" max="33" width="11.875" customWidth="1"/>
+    <col min="34" max="34" width="20.875" customWidth="1"/>
+    <col min="35" max="35" width="24.25" customWidth="1"/>
+    <col min="36" max="36" width="23.125" customWidth="1"/>
     <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="42" width="15.2222222222222" customWidth="1"/>
+    <col min="39" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="42" width="15.25" customWidth="1"/>
     <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.1111111111111" customWidth="1"/>
-    <col min="46" max="46" width="16.4444444444444" customWidth="1"/>
-    <col min="47" max="47" width="23.1111111111111" customWidth="1"/>
-    <col min="48" max="48" width="19.7777777777778" customWidth="1"/>
-    <col min="49" max="49" width="23.1111111111111" customWidth="1"/>
-    <col min="50" max="50" width="15.2222222222222" customWidth="1"/>
-    <col min="51" max="51" width="18.6666666666667" customWidth="1"/>
-    <col min="52" max="52" width="17.5555555555556" customWidth="1"/>
-    <col min="53" max="54" width="16.4444444444444" customWidth="1"/>
-    <col min="55" max="56" width="17.5555555555556" customWidth="1"/>
-    <col min="57" max="57" width="16.4444444444444" customWidth="1"/>
-    <col min="58" max="58" width="17.5555555555556" customWidth="1"/>
-    <col min="59" max="59" width="18.6666666666667" customWidth="1"/>
-    <col min="60" max="60" width="25.4444444444444" customWidth="1"/>
-    <col min="61" max="61" width="27.6666666666667" customWidth="1"/>
-    <col min="62" max="62" width="20.8888888888889" customWidth="1"/>
-    <col min="63" max="63" width="16.4444444444444" customWidth="1"/>
-    <col min="64" max="64" width="23.1111111111111" customWidth="1"/>
-    <col min="65" max="65" width="9.66666666666667" customWidth="1"/>
-    <col min="66" max="66" width="23.1111111111111" customWidth="1"/>
-    <col min="67" max="67" width="18.6666666666667" customWidth="1"/>
-    <col min="68" max="68" width="24.2222222222222" customWidth="1"/>
-    <col min="69" max="69" width="19.7777777777778" customWidth="1"/>
-    <col min="70" max="70" width="15.2222222222222" customWidth="1"/>
-    <col min="71" max="71" width="16.4444444444444" customWidth="1"/>
-    <col min="72" max="72" width="18.6666666666667" customWidth="1"/>
-    <col min="73" max="73" width="19.7777777777778" customWidth="1"/>
-    <col min="74" max="74" width="26.5555555555556" customWidth="1"/>
-    <col min="75" max="75" width="14.1111111111111" customWidth="1"/>
+    <col min="45" max="45" width="14.125" customWidth="1"/>
+    <col min="46" max="46" width="16.5" customWidth="1"/>
+    <col min="47" max="47" width="23.125" customWidth="1"/>
+    <col min="48" max="48" width="19.75" customWidth="1"/>
+    <col min="49" max="49" width="23.125" customWidth="1"/>
+    <col min="50" max="50" width="15.25" customWidth="1"/>
+    <col min="51" max="51" width="18.625" customWidth="1"/>
+    <col min="52" max="52" width="17.5" customWidth="1"/>
+    <col min="53" max="54" width="16.5" customWidth="1"/>
+    <col min="55" max="56" width="17.5" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="17.5" customWidth="1"/>
+    <col min="59" max="59" width="18.625" customWidth="1"/>
+    <col min="60" max="60" width="25.5" customWidth="1"/>
+    <col min="61" max="61" width="27.625" customWidth="1"/>
+    <col min="62" max="62" width="20.875" customWidth="1"/>
+    <col min="63" max="63" width="16.5" customWidth="1"/>
+    <col min="64" max="64" width="23.125" customWidth="1"/>
+    <col min="65" max="65" width="9.625" customWidth="1"/>
+    <col min="66" max="66" width="23.125" customWidth="1"/>
+    <col min="67" max="67" width="18.625" customWidth="1"/>
+    <col min="68" max="68" width="24.25" customWidth="1"/>
+    <col min="69" max="69" width="19.75" customWidth="1"/>
+    <col min="70" max="70" width="15.25" customWidth="1"/>
+    <col min="71" max="71" width="16.5" customWidth="1"/>
+    <col min="72" max="72" width="18.625" customWidth="1"/>
+    <col min="73" max="73" width="19.75" customWidth="1"/>
+    <col min="74" max="74" width="26.5" customWidth="1"/>
+    <col min="75" max="75" width="14.125" customWidth="1"/>
     <col min="76" max="76" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:76">
+    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -3023,7 +2412,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:76">
+    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -3253,41 +2642,40 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
-    <row r="7" s="1" customFormat="1"/>
-    <row r="8" s="1" customFormat="1"/>
-    <row r="9" s="1" customFormat="1"/>
+    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EP2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.1296296296296" customWidth="1"/>
+    <col min="1" max="1" width="20.125" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="11.6296296296296" customWidth="1"/>
-    <col min="11" max="11" width="18.3796296296296" customWidth="1"/>
-    <col min="12" max="12" width="11.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="11.625" customWidth="1"/>
     <col min="27" max="27" width="16.5" customWidth="1"/>
-    <col min="62" max="62" width="16.1296296296296" customWidth="1"/>
+    <col min="62" max="62" width="16.125" customWidth="1"/>
     <col min="63" max="63" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:146">
+    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3727,7 +3115,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:146">
+    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -4132,145 +3520,144 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:DV5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DX5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="14.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="9.66666666666667" customWidth="1"/>
-    <col min="5" max="6" width="14.1111111111111" customWidth="1"/>
-    <col min="7" max="7" width="11.8888888888889" customWidth="1"/>
-    <col min="8" max="8" width="9.66666666666667" customWidth="1"/>
-    <col min="9" max="9" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="18.6666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="16.4444444444444" customWidth="1"/>
-    <col min="15" max="15" width="17.5555555555556" customWidth="1"/>
-    <col min="16" max="16" width="10.7777777777778" customWidth="1"/>
-    <col min="17" max="17" width="24.2222222222222" customWidth="1"/>
-    <col min="18" max="18" width="7.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="16.4444444444444" customWidth="1"/>
-    <col min="20" max="20" width="11.8888888888889" customWidth="1"/>
-    <col min="21" max="21" width="16.4444444444444" customWidth="1"/>
-    <col min="22" max="22" width="19.7777777777778" customWidth="1"/>
-    <col min="23" max="23" width="24.2222222222222" customWidth="1"/>
-    <col min="24" max="24" width="11.8888888888889" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="24.25" customWidth="1"/>
+    <col min="18" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="19.75" customWidth="1"/>
+    <col min="23" max="23" width="24.25" customWidth="1"/>
+    <col min="24" max="24" width="11.875" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="27" width="14.1111111111111" customWidth="1"/>
-    <col min="28" max="28" width="16.4444444444444" customWidth="1"/>
+    <col min="26" max="27" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="16.5" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="15.2222222222222" customWidth="1"/>
+    <col min="30" max="30" width="15.25" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="14.1111111111111" customWidth="1"/>
-    <col min="33" max="33" width="9.66666666666667" customWidth="1"/>
-    <col min="34" max="34" width="17.5555555555556" customWidth="1"/>
+    <col min="32" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="34" max="34" width="17.5" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="9.66666666666667" customWidth="1"/>
+    <col min="36" max="36" width="9.625" customWidth="1"/>
     <col min="37" max="37" width="22" customWidth="1"/>
-    <col min="38" max="38" width="14.1111111111111" customWidth="1"/>
-    <col min="39" max="39" width="18.6666666666667" customWidth="1"/>
-    <col min="40" max="40" width="11.8888888888889" customWidth="1"/>
-    <col min="41" max="41" width="16.4444444444444" customWidth="1"/>
-    <col min="42" max="42" width="10.7777777777778" customWidth="1"/>
+    <col min="38" max="38" width="14.125" customWidth="1"/>
+    <col min="39" max="39" width="18.625" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="42" width="10.75" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
     <col min="44" max="44" width="22" customWidth="1"/>
-    <col min="45" max="45" width="8.66666666666667" customWidth="1"/>
-    <col min="46" max="46" width="23.1111111111111" customWidth="1"/>
-    <col min="47" max="48" width="11.8888888888889" customWidth="1"/>
-    <col min="49" max="49" width="5.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="10.7777777777778" customWidth="1"/>
-    <col min="51" max="51" width="14.1111111111111" customWidth="1"/>
-    <col min="52" max="52" width="17.5555555555556" customWidth="1"/>
-    <col min="53" max="53" width="11.8888888888889" customWidth="1"/>
-    <col min="54" max="54" width="16.4444444444444" customWidth="1"/>
-    <col min="55" max="55" width="19.7777777777778" customWidth="1"/>
-    <col min="56" max="56" width="17.5555555555556" customWidth="1"/>
-    <col min="57" max="57" width="16.4444444444444" customWidth="1"/>
-    <col min="58" max="58" width="15.2222222222222" customWidth="1"/>
-    <col min="59" max="59" width="16.4444444444444" customWidth="1"/>
-    <col min="60" max="60" width="20.8888888888889" customWidth="1"/>
-    <col min="61" max="61" width="15.2222222222222" customWidth="1"/>
-    <col min="62" max="62" width="20.8888888888889" customWidth="1"/>
-    <col min="63" max="64" width="16.4444444444444" customWidth="1"/>
-    <col min="65" max="65" width="17.5555555555556" customWidth="1"/>
-    <col min="66" max="66" width="14.1111111111111" customWidth="1"/>
-    <col min="67" max="68" width="15.2222222222222" customWidth="1"/>
-    <col min="69" max="69" width="18.6666666666667" customWidth="1"/>
+    <col min="45" max="45" width="8.625" customWidth="1"/>
+    <col min="46" max="46" width="23.125" customWidth="1"/>
+    <col min="47" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="10.75" customWidth="1"/>
+    <col min="51" max="51" width="14.125" customWidth="1"/>
+    <col min="52" max="52" width="17.5" customWidth="1"/>
+    <col min="53" max="53" width="11.875" customWidth="1"/>
+    <col min="54" max="54" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="19.75" customWidth="1"/>
+    <col min="56" max="56" width="17.5" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="15.25" customWidth="1"/>
+    <col min="59" max="59" width="16.5" customWidth="1"/>
+    <col min="60" max="60" width="20.875" customWidth="1"/>
+    <col min="61" max="61" width="15.25" customWidth="1"/>
+    <col min="62" max="62" width="20.875" customWidth="1"/>
+    <col min="63" max="64" width="16.5" customWidth="1"/>
+    <col min="65" max="65" width="17.5" customWidth="1"/>
+    <col min="66" max="66" width="14.125" customWidth="1"/>
+    <col min="67" max="68" width="15.25" customWidth="1"/>
+    <col min="69" max="69" width="18.625" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="17.5555555555556" customWidth="1"/>
-    <col min="72" max="72" width="9.66666666666667" customWidth="1"/>
-    <col min="73" max="73" width="19.7777777777778" customWidth="1"/>
+    <col min="71" max="71" width="17.5" customWidth="1"/>
+    <col min="72" max="72" width="9.625" customWidth="1"/>
+    <col min="73" max="73" width="19.75" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="15.2222222222222" customWidth="1"/>
-    <col min="76" max="76" width="24.2222222222222" customWidth="1"/>
-    <col min="77" max="78" width="19.7777777777778" customWidth="1"/>
-    <col min="79" max="79" width="18.6666666666667" customWidth="1"/>
-    <col min="80" max="80" width="26.5555555555556" customWidth="1"/>
+    <col min="75" max="75" width="15.25" customWidth="1"/>
+    <col min="76" max="76" width="24.25" customWidth="1"/>
+    <col min="77" max="78" width="19.75" customWidth="1"/>
+    <col min="79" max="79" width="18.625" customWidth="1"/>
+    <col min="80" max="80" width="26.5" customWidth="1"/>
     <col min="81" max="81" width="22" customWidth="1"/>
-    <col min="82" max="82" width="25.4444444444444" customWidth="1"/>
+    <col min="82" max="82" width="25.5" customWidth="1"/>
     <col min="83" max="83" width="22" customWidth="1"/>
-    <col min="84" max="84" width="17.5555555555556" customWidth="1"/>
-    <col min="85" max="85" width="9.66666666666667" customWidth="1"/>
-    <col min="86" max="86" width="10.7777777777778" customWidth="1"/>
+    <col min="84" max="84" width="17.5" customWidth="1"/>
+    <col min="85" max="85" width="9.625" customWidth="1"/>
+    <col min="86" max="86" width="10.75" customWidth="1"/>
     <col min="87" max="87" width="13" customWidth="1"/>
-    <col min="88" max="88" width="10.7777777777778" customWidth="1"/>
-    <col min="89" max="89" width="17.5555555555556" customWidth="1"/>
-    <col min="90" max="90" width="15.2222222222222" customWidth="1"/>
+    <col min="88" max="88" width="10.75" customWidth="1"/>
+    <col min="89" max="89" width="17.5" customWidth="1"/>
+    <col min="90" max="90" width="15.25" customWidth="1"/>
     <col min="91" max="91" width="13" customWidth="1"/>
-    <col min="92" max="92" width="16.4444444444444" customWidth="1"/>
-    <col min="93" max="93" width="14.1111111111111" customWidth="1"/>
-    <col min="94" max="94" width="19.7777777777778" customWidth="1"/>
-    <col min="95" max="95" width="11.8888888888889" customWidth="1"/>
-    <col min="96" max="96" width="8.66666666666667" customWidth="1"/>
+    <col min="92" max="92" width="16.5" customWidth="1"/>
+    <col min="93" max="93" width="14.125" customWidth="1"/>
+    <col min="94" max="94" width="19.75" customWidth="1"/>
+    <col min="95" max="95" width="11.875" customWidth="1"/>
+    <col min="96" max="96" width="8.625" customWidth="1"/>
     <col min="97" max="97" width="13" customWidth="1"/>
-    <col min="98" max="98" width="24.2222222222222" customWidth="1"/>
-    <col min="99" max="99" width="7.66666666666667" customWidth="1"/>
-    <col min="100" max="100" width="18.6666666666667" customWidth="1"/>
-    <col min="101" max="101" width="8.66666666666667" customWidth="1"/>
-    <col min="102" max="103" width="19.7777777777778" customWidth="1"/>
+    <col min="98" max="98" width="24.25" customWidth="1"/>
+    <col min="99" max="99" width="7.625" customWidth="1"/>
+    <col min="100" max="100" width="18.625" customWidth="1"/>
+    <col min="101" max="101" width="8.625" customWidth="1"/>
+    <col min="102" max="103" width="19.75" customWidth="1"/>
     <col min="104" max="104" width="13" customWidth="1"/>
-    <col min="105" max="105" width="17.5555555555556" customWidth="1"/>
-    <col min="106" max="106" width="15.2222222222222" customWidth="1"/>
-    <col min="107" max="107" width="19.7777777777778" customWidth="1"/>
-    <col min="108" max="108" width="20.8888888888889" customWidth="1"/>
-    <col min="109" max="109" width="18.6666666666667" customWidth="1"/>
-    <col min="110" max="110" width="11.8888888888889" customWidth="1"/>
-    <col min="111" max="111" width="18.6666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="14.1111111111111" customWidth="1"/>
-    <col min="114" max="114" width="15.2222222222222" customWidth="1"/>
-    <col min="115" max="115" width="18.6666666666667" customWidth="1"/>
-    <col min="116" max="116" width="15.2222222222222" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="19.7777777777778" customWidth="1"/>
-    <col min="120" max="120" width="15.2222222222222" customWidth="1"/>
+    <col min="105" max="105" width="17.5" customWidth="1"/>
+    <col min="106" max="106" width="15.25" customWidth="1"/>
+    <col min="107" max="107" width="19.75" customWidth="1"/>
+    <col min="108" max="108" width="20.875" customWidth="1"/>
+    <col min="109" max="109" width="18.625" customWidth="1"/>
+    <col min="110" max="110" width="11.875" customWidth="1"/>
+    <col min="111" max="111" width="18.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="14.125" customWidth="1"/>
+    <col min="114" max="114" width="15.25" customWidth="1"/>
+    <col min="115" max="115" width="18.625" customWidth="1"/>
+    <col min="116" max="116" width="15.25" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="19.75" customWidth="1"/>
+    <col min="120" max="120" width="15.25" customWidth="1"/>
     <col min="121" max="121" width="13" customWidth="1"/>
-    <col min="122" max="122" width="16.4444444444444" customWidth="1"/>
-    <col min="123" max="123" width="19.7777777777778" customWidth="1"/>
-    <col min="124" max="124" width="23.1111111111111" customWidth="1"/>
-    <col min="125" max="125" width="27.6666666666667" customWidth="1"/>
-    <col min="126" max="126" width="18.6666666666667" customWidth="1"/>
+    <col min="122" max="122" width="16.5" customWidth="1"/>
+    <col min="123" max="123" width="19.75" customWidth="1"/>
+    <col min="124" max="124" width="23.125" customWidth="1"/>
+    <col min="125" max="125" width="27.625" customWidth="1"/>
+    <col min="126" max="126" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:126">
+    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -4650,9 +4037,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:126">
+    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>394</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -4730,7 +4117,7 @@
         <v>92</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>252</v>
@@ -4751,7 +4138,7 @@
         <v>97</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="AJ2" s="1" t="s">
         <v>92</v>
@@ -4913,7 +4300,7 @@
         <v>92</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="CT2" s="1" t="s">
         <v>92</v>
@@ -4996,166 +4383,171 @@
       <c r="DV2" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="DW2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
+    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:EE6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:EI6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="6" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.2222222222222" customWidth="1"/>
-    <col min="9" max="9" width="7.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="16.4444444444444" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="11.8888888888889" customWidth="1"/>
-    <col min="14" max="14" width="7.66666666666667" customWidth="1"/>
-    <col min="15" max="15" width="9.66666666666667" customWidth="1"/>
-    <col min="16" max="16" width="8.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="10.7777777777778" customWidth="1"/>
-    <col min="18" max="18" width="8.66666666666667" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="7.66666666666667" customWidth="1"/>
-    <col min="21" max="21" width="10.7777777777778" customWidth="1"/>
-    <col min="22" max="22" width="9.66666666666667" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="21" max="21" width="10.75" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="16.4444444444444" customWidth="1"/>
-    <col min="25" max="25" width="14.1111111111111" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
-    <col min="27" max="27" width="11.8888888888889" customWidth="1"/>
-    <col min="28" max="28" width="8.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="9.66666666666667" customWidth="1"/>
-    <col min="30" max="30" width="23.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="10.7777777777778" customWidth="1"/>
-    <col min="32" max="32" width="15.2222222222222" customWidth="1"/>
-    <col min="33" max="34" width="14.1111111111111" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="9.625" customWidth="1"/>
+    <col min="27" max="27" width="11.875" customWidth="1"/>
+    <col min="28" max="28" width="8.625" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="34" width="14.125" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9.625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.7777777777778" customWidth="1"/>
-    <col min="40" max="40" width="14.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="11.8888888888889" customWidth="1"/>
-    <col min="42" max="43" width="9.66666666666667" customWidth="1"/>
-    <col min="44" max="44" width="14.1111111111111" customWidth="1"/>
-    <col min="45" max="45" width="16.4444444444444" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="46" width="9.625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.1111111111111" customWidth="1"/>
-    <col min="49" max="49" width="8.66666666666667" customWidth="1"/>
-    <col min="50" max="50" width="17.5555555555556" customWidth="1"/>
-    <col min="51" max="51" width="11.8888888888889" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="9.66666666666667" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="8.625" customWidth="1"/>
+    <col min="50" max="50" width="17.5" customWidth="1"/>
+    <col min="51" max="51" width="11.875" customWidth="1"/>
+    <col min="52" max="52" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="9.625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.4444444444444" customWidth="1"/>
+    <col min="55" max="55" width="16.5" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.4444444444444" customWidth="1"/>
-    <col min="59" max="59" width="15.2222222222222" customWidth="1"/>
-    <col min="60" max="60" width="5.66666666666667" customWidth="1"/>
-    <col min="61" max="61" width="17.5555555555556" customWidth="1"/>
-    <col min="62" max="62" width="14.1111111111111" customWidth="1"/>
-    <col min="63" max="63" width="11.8888888888889" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="14.1111111111111" customWidth="1"/>
-    <col min="66" max="66" width="9.66666666666667" customWidth="1"/>
-    <col min="67" max="67" width="17.5555555555556" customWidth="1"/>
-    <col min="68" max="68" width="16.4444444444444" customWidth="1"/>
-    <col min="69" max="69" width="11.8888888888889" customWidth="1"/>
+    <col min="58" max="58" width="16.5" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="5.625" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="14.125" customWidth="1"/>
+    <col min="63" max="63" width="11.875" customWidth="1"/>
+    <col min="64" max="64" width="8.625" customWidth="1"/>
+    <col min="65" max="65" width="14.125" customWidth="1"/>
+    <col min="66" max="66" width="9.625" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.8888888888889" customWidth="1"/>
-    <col min="72" max="72" width="15.2222222222222" customWidth="1"/>
-    <col min="73" max="73" width="11.8888888888889" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="15.25" customWidth="1"/>
+    <col min="73" max="73" width="11.875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5555555555556" customWidth="1"/>
-    <col min="76" max="76" width="20.8888888888889" customWidth="1"/>
-    <col min="77" max="77" width="16.4444444444444" customWidth="1"/>
+    <col min="75" max="75" width="17.5" customWidth="1"/>
+    <col min="76" max="76" width="20.875" customWidth="1"/>
+    <col min="77" max="77" width="16.5" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.8888888888889" customWidth="1"/>
-    <col min="80" max="80" width="10.7777777777778" customWidth="1"/>
-    <col min="81" max="81" width="11.8888888888889" customWidth="1"/>
-    <col min="82" max="83" width="7.66666666666667" customWidth="1"/>
-    <col min="84" max="85" width="17.5555555555556" customWidth="1"/>
-    <col min="86" max="86" width="16.4444444444444" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="14.1111111111111" customWidth="1"/>
-    <col min="89" max="89" width="11.8888888888889" customWidth="1"/>
-    <col min="90" max="90" width="10.7777777777778" customWidth="1"/>
-    <col min="91" max="91" width="11.8888888888889" customWidth="1"/>
-    <col min="92" max="92" width="19.7777777777778" customWidth="1"/>
-    <col min="93" max="93" width="16.4444444444444" customWidth="1"/>
-    <col min="94" max="94" width="23.1111111111111" customWidth="1"/>
-    <col min="95" max="95" width="7.66666666666667" customWidth="1"/>
-    <col min="96" max="96" width="18.6666666666667" customWidth="1"/>
-    <col min="97" max="97" width="10.7777777777778" customWidth="1"/>
-    <col min="98" max="98" width="14.1111111111111" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="80" width="10.75" customWidth="1"/>
+    <col min="81" max="81" width="11.875" customWidth="1"/>
+    <col min="82" max="83" width="7.625" customWidth="1"/>
+    <col min="84" max="85" width="17.5" customWidth="1"/>
+    <col min="86" max="86" width="16.5" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="14.125" customWidth="1"/>
+    <col min="89" max="89" width="11.875" customWidth="1"/>
+    <col min="90" max="90" width="10.75" customWidth="1"/>
+    <col min="91" max="91" width="11.875" customWidth="1"/>
+    <col min="92" max="92" width="19.75" customWidth="1"/>
+    <col min="93" max="93" width="16.5" customWidth="1"/>
+    <col min="94" max="94" width="23.125" customWidth="1"/>
+    <col min="95" max="95" width="7.625" customWidth="1"/>
+    <col min="96" max="96" width="18.625" customWidth="1"/>
+    <col min="97" max="97" width="10.75" customWidth="1"/>
+    <col min="98" max="98" width="14.125" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.4444444444444" customWidth="1"/>
+    <col min="100" max="100" width="16.5" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.66666666666667" customWidth="1"/>
-    <col min="104" max="104" width="16.4444444444444" customWidth="1"/>
-    <col min="105" max="105" width="14.1111111111111" customWidth="1"/>
-    <col min="106" max="106" width="11.8888888888889" customWidth="1"/>
-    <col min="107" max="108" width="15.2222222222222" customWidth="1"/>
-    <col min="109" max="109" width="9.66666666666667" customWidth="1"/>
+    <col min="103" max="103" width="9.625" customWidth="1"/>
+    <col min="104" max="104" width="16.5" customWidth="1"/>
+    <col min="105" max="105" width="14.125" customWidth="1"/>
+    <col min="106" max="106" width="11.875" customWidth="1"/>
+    <col min="107" max="108" width="15.25" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.66666666666667" customWidth="1"/>
-    <col min="112" max="112" width="15.2222222222222" customWidth="1"/>
-    <col min="113" max="113" width="17.5555555555556" customWidth="1"/>
-    <col min="114" max="114" width="14.1111111111111" customWidth="1"/>
-    <col min="115" max="115" width="19.7777777777778" customWidth="1"/>
-    <col min="116" max="116" width="16.4444444444444" customWidth="1"/>
-    <col min="117" max="117" width="20.8888888888889" customWidth="1"/>
-    <col min="118" max="118" width="24.2222222222222" customWidth="1"/>
-    <col min="119" max="119" width="16.4444444444444" customWidth="1"/>
-    <col min="120" max="120" width="17.5555555555556" customWidth="1"/>
+    <col min="111" max="111" width="9.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="14.125" customWidth="1"/>
+    <col min="115" max="115" width="19.75" customWidth="1"/>
+    <col min="116" max="116" width="16.5" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="16.5" customWidth="1"/>
+    <col min="120" max="120" width="17.5" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.8888888888889" customWidth="1"/>
-    <col min="124" max="124" width="19.7777777777778" customWidth="1"/>
-    <col min="125" max="125" width="17.5555555555556" customWidth="1"/>
-    <col min="126" max="126" width="20.8888888888889" customWidth="1"/>
-    <col min="127" max="127" width="18.6666666666667" customWidth="1"/>
-    <col min="128" max="128" width="8.66666666666667" customWidth="1"/>
-    <col min="129" max="129" width="15.2222222222222" customWidth="1"/>
+    <col min="122" max="123" width="20.875" customWidth="1"/>
+    <col min="124" max="124" width="19.75" customWidth="1"/>
+    <col min="125" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="20.875" customWidth="1"/>
+    <col min="127" max="127" width="18.625" customWidth="1"/>
+    <col min="128" max="128" width="8.625" customWidth="1"/>
+    <col min="129" max="129" width="15.25" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="16.4444444444444" customWidth="1"/>
-    <col min="132" max="132" width="10.7777777777778" customWidth="1"/>
-    <col min="133" max="133" width="11.8888888888889" customWidth="1"/>
-    <col min="134" max="134" width="15.2222222222222" customWidth="1"/>
-    <col min="135" max="135" width="16.4444444444444" customWidth="1"/>
+    <col min="131" max="131" width="16.5" customWidth="1"/>
+    <col min="132" max="132" width="10.75" customWidth="1"/>
+    <col min="133" max="133" width="11.875" customWidth="1"/>
+    <col min="134" max="134" width="15.25" customWidth="1"/>
+    <col min="135" max="135" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:135">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>265</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>101</v>
@@ -5164,13 +4556,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
@@ -5179,7 +4571,7 @@
         <v>105</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -5197,100 +4589,100 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>172</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>133</v>
@@ -5302,19 +4694,19 @@
         <v>144</v>
       </c>
       <c r="BA1" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="BF1" s="1" t="s">
         <v>156</v>
@@ -5326,148 +4718,148 @@
         <v>148</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>146</v>
       </c>
       <c r="BV1" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="BW1" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>159</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>341</v>
       </c>
       <c r="CV1" s="1" t="s">
         <v>164</v>
       </c>
       <c r="CW1" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="DE1" s="1" t="s">
         <v>171</v>
@@ -5479,99 +4871,99 @@
         <v>127</v>
       </c>
       <c r="DH1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="DI1" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="DL1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="DZ1" s="1" t="s">
         <v>142</v>
       </c>
       <c r="EA1" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="EB1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="EE1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:135">
-      <c r="A2" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>373</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>84</v>
@@ -5601,28 +4993,28 @@
         <v>95</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="Y2" s="1" t="s">
         <v>257</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>248</v>
@@ -5634,43 +5026,43 @@
         <v>92</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>385</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>95</v>
@@ -5682,16 +5074,16 @@
         <v>86</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>104</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AW2" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>97</v>
@@ -5718,10 +5110,10 @@
         <v>83</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>92</v>
@@ -5730,10 +5122,10 @@
         <v>83</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>83</v>
@@ -5760,7 +5152,7 @@
         <v>246</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>83</v>
+        <v>401</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>92</v>
@@ -5778,7 +5170,7 @@
         <v>83</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="CJ2" s="1" t="s">
         <v>252</v>
@@ -5790,13 +5182,13 @@
         <v>99</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>83</v>
@@ -5811,7 +5203,7 @@
         <v>92</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>99</v>
@@ -5823,44 +5215,44 @@
         <v>94</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>92</v>
       </c>
       <c r="DL2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="DU2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="DM2" s="1" t="s">
+      <c r="DV2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="DN2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>384</v>
-      </c>
       <c r="DW2" s="1" t="s">
         <v>92</v>
       </c>
@@ -5871,10 +5263,10 @@
         <v>92</v>
       </c>
       <c r="EA2" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="ED2" s="1" t="s">
         <v>92</v>
@@ -5882,13 +5274,19 @@
       <c r="EE2" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="EG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="EI2" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
-    <row r="5" s="1" customFormat="1"/>
-    <row r="6" s="1" customFormat="1"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/用例数据/沪A/普通买卖/股票买入虚拟股东/测试结果.xlsx
+++ b/用例数据/沪A/普通买卖/股票买入虚拟股东/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="408">
   <si>
     <t>EXCHID</t>
   </si>
@@ -289,18 +289,9 @@
     <t>A117292000</t>
   </si>
   <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>浦发银行</t>
-  </si>
-  <si>
     <t>11.03800000</t>
   </si>
   <si>
-    <t>2340.0000</t>
-  </si>
-  <si>
     <t>0.000</t>
   </si>
   <si>
@@ -319,9 +310,6 @@
     <t>0.0000</t>
   </si>
   <si>
-    <t>11.700</t>
-  </si>
-  <si>
     <t>0.00</t>
   </si>
   <si>
@@ -331,9 +319,6 @@
     <t>OCCURTIME</t>
   </si>
   <si>
-    <t>20210116000000</t>
-  </si>
-  <si>
     <t>2340.000</t>
   </si>
   <si>
@@ -778,18 +763,12 @@
     <t>10000000.000</t>
   </si>
   <si>
-    <t>20181009103140</t>
-  </si>
-  <si>
     <t>-1</t>
   </si>
   <si>
     <t>0.0076000000</t>
   </si>
   <si>
-    <t>4482358.800</t>
-  </si>
-  <si>
     <t>0.050000</t>
   </si>
   <si>
@@ -805,9 +784,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>45858.400</t>
-  </si>
-  <si>
     <t>Level1</t>
   </si>
   <si>
@@ -1229,6 +1205,48 @@
   </si>
   <si>
     <t>5</t>
+  </si>
+  <si>
+    <t>CREDITSHAREGOINGQTY</t>
+  </si>
+  <si>
+    <t>CREDITUSABLEQTY</t>
+  </si>
+  <si>
+    <t>CREDITBUYFROZENQTY</t>
+  </si>
+  <si>
+    <t>20221216000000</t>
+  </si>
+  <si>
+    <t>603999</t>
+  </si>
+  <si>
+    <t>读者传媒</t>
+  </si>
+  <si>
+    <t>1052.000</t>
+  </si>
+  <si>
+    <t>5.2600</t>
+  </si>
+  <si>
+    <t>MAVGREPOAMT</t>
+  </si>
+  <si>
+    <t>DIFFCOMMISION</t>
+  </si>
+  <si>
+    <t>20220105000000</t>
+  </si>
+  <si>
+    <t>100697509.200</t>
+  </si>
+  <si>
+    <t>998844.400</t>
+  </si>
+  <si>
+    <t>1052.0000</t>
   </si>
 </sst>
 </file>
@@ -1578,21 +1596,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CE8"/>
+  <dimension ref="A1:CH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1842,8 +1859,17 @@
       <c r="CE1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1863,194 +1889,197 @@
         <v>87</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="X2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="BS2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2090,13 +2119,22 @@
       <c r="CE2" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="CF2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,85 +2144,86 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BX9"/>
+  <dimension ref="A1:CA9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="7.625" customWidth="1"/>
-    <col min="9" max="9" width="9.625" customWidth="1"/>
-    <col min="10" max="10" width="20.875" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="14.125" customWidth="1"/>
-    <col min="13" max="13" width="9.625" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="10.75" customWidth="1"/>
-    <col min="16" max="16" width="11.875" customWidth="1"/>
-    <col min="17" max="18" width="15.25" customWidth="1"/>
-    <col min="19" max="19" width="14.125" customWidth="1"/>
-    <col min="20" max="20" width="17.5" customWidth="1"/>
-    <col min="21" max="21" width="14.125" customWidth="1"/>
-    <col min="22" max="22" width="16.5" customWidth="1"/>
-    <col min="23" max="23" width="11.875" customWidth="1"/>
-    <col min="24" max="24" width="8.625" customWidth="1"/>
-    <col min="25" max="25" width="10.75" customWidth="1"/>
-    <col min="26" max="26" width="7.625" customWidth="1"/>
-    <col min="27" max="27" width="17.5" customWidth="1"/>
-    <col min="28" max="28" width="9.625" customWidth="1"/>
-    <col min="29" max="29" width="15.25" customWidth="1"/>
-    <col min="30" max="30" width="10.75" customWidth="1"/>
-    <col min="31" max="31" width="15.25" customWidth="1"/>
-    <col min="32" max="32" width="22" customWidth="1"/>
-    <col min="33" max="33" width="11.875" customWidth="1"/>
-    <col min="34" max="34" width="20.875" customWidth="1"/>
-    <col min="35" max="35" width="24.25" customWidth="1"/>
-    <col min="36" max="36" width="23.125" customWidth="1"/>
-    <col min="37" max="38" width="13" customWidth="1"/>
-    <col min="39" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="42" width="15.25" customWidth="1"/>
-    <col min="43" max="44" width="13" customWidth="1"/>
-    <col min="45" max="45" width="14.125" customWidth="1"/>
-    <col min="46" max="46" width="16.5" customWidth="1"/>
-    <col min="47" max="47" width="23.125" customWidth="1"/>
-    <col min="48" max="48" width="19.75" customWidth="1"/>
-    <col min="49" max="49" width="23.125" customWidth="1"/>
-    <col min="50" max="50" width="15.25" customWidth="1"/>
-    <col min="51" max="51" width="18.625" customWidth="1"/>
-    <col min="52" max="52" width="17.5" customWidth="1"/>
-    <col min="53" max="54" width="16.5" customWidth="1"/>
-    <col min="55" max="56" width="17.5" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="17.5" customWidth="1"/>
-    <col min="59" max="59" width="18.625" customWidth="1"/>
-    <col min="60" max="60" width="25.5" customWidth="1"/>
-    <col min="61" max="61" width="27.625" customWidth="1"/>
-    <col min="62" max="62" width="20.875" customWidth="1"/>
-    <col min="63" max="63" width="16.5" customWidth="1"/>
-    <col min="64" max="64" width="23.125" customWidth="1"/>
-    <col min="65" max="65" width="9.625" customWidth="1"/>
-    <col min="66" max="66" width="23.125" customWidth="1"/>
-    <col min="67" max="67" width="18.625" customWidth="1"/>
-    <col min="68" max="68" width="24.25" customWidth="1"/>
-    <col min="69" max="69" width="19.75" customWidth="1"/>
-    <col min="70" max="70" width="15.25" customWidth="1"/>
-    <col min="71" max="71" width="16.5" customWidth="1"/>
-    <col min="72" max="72" width="18.625" customWidth="1"/>
-    <col min="73" max="73" width="19.75" customWidth="1"/>
-    <col min="74" max="74" width="26.5" customWidth="1"/>
-    <col min="75" max="75" width="14.125" customWidth="1"/>
-    <col min="76" max="76" width="13" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="17" width="15.21875" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
+    <col min="23" max="23" width="8.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.77734375" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.44140625" customWidth="1"/>
+    <col min="27" max="27" width="9.6640625" customWidth="1"/>
+    <col min="28" max="28" width="15.21875" customWidth="1"/>
+    <col min="29" max="29" width="10.77734375" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="22" customWidth="1"/>
+    <col min="32" max="32" width="11.88671875" customWidth="1"/>
+    <col min="33" max="33" width="20.88671875" customWidth="1"/>
+    <col min="34" max="34" width="24.21875" customWidth="1"/>
+    <col min="35" max="35" width="23.109375" customWidth="1"/>
+    <col min="36" max="37" width="13" customWidth="1"/>
+    <col min="38" max="39" width="14.109375" customWidth="1"/>
+    <col min="40" max="41" width="15.21875" customWidth="1"/>
+    <col min="42" max="43" width="13" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="23.109375" customWidth="1"/>
+    <col min="47" max="47" width="19.77734375" customWidth="1"/>
+    <col min="48" max="48" width="23.109375" customWidth="1"/>
+    <col min="49" max="49" width="15.21875" customWidth="1"/>
+    <col min="50" max="50" width="18.6640625" customWidth="1"/>
+    <col min="51" max="51" width="17.44140625" customWidth="1"/>
+    <col min="52" max="53" width="16.44140625" customWidth="1"/>
+    <col min="54" max="55" width="17.44140625" customWidth="1"/>
+    <col min="56" max="56" width="16.44140625" customWidth="1"/>
+    <col min="57" max="57" width="17.44140625" customWidth="1"/>
+    <col min="58" max="58" width="18.6640625" customWidth="1"/>
+    <col min="59" max="59" width="25.44140625" customWidth="1"/>
+    <col min="60" max="60" width="27.6640625" customWidth="1"/>
+    <col min="61" max="61" width="20.88671875" customWidth="1"/>
+    <col min="62" max="62" width="16.44140625" customWidth="1"/>
+    <col min="63" max="63" width="23.109375" customWidth="1"/>
+    <col min="64" max="64" width="9.6640625" customWidth="1"/>
+    <col min="65" max="65" width="23.109375" customWidth="1"/>
+    <col min="66" max="66" width="18.6640625" customWidth="1"/>
+    <col min="67" max="67" width="24.21875" customWidth="1"/>
+    <col min="68" max="68" width="19.77734375" customWidth="1"/>
+    <col min="69" max="69" width="15.21875" customWidth="1"/>
+    <col min="70" max="70" width="16.44140625" customWidth="1"/>
+    <col min="71" max="71" width="18.6640625" customWidth="1"/>
+    <col min="72" max="72" width="19.77734375" customWidth="1"/>
+    <col min="73" max="73" width="26.44140625" customWidth="1"/>
+    <col min="74" max="74" width="14.109375" customWidth="1"/>
+    <col min="75" max="75" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2411,10 +2450,19 @@
       <c r="BX1" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="BY1" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>396</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>397</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>83</v>
@@ -2435,179 +2483,179 @@
         <v>87</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="BN2" s="1" t="s">
         <v>83</v>
       </c>
@@ -2641,14 +2689,23 @@
       <c r="BX2" s="1" t="s">
         <v>83</v>
       </c>
+      <c r="BY2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:76" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2657,39 +2714,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EP2"/>
+  <dimension ref="A1:ER2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="11.625" customWidth="1"/>
-    <col min="11" max="11" width="18.375" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="27" max="27" width="16.5" customWidth="1"/>
-    <col min="62" max="62" width="16.125" customWidth="1"/>
-    <col min="63" max="63" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="16.44140625" customWidth="1"/>
+    <col min="60" max="60" width="16.109375" customWidth="1"/>
+    <col min="61" max="61" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>21</v>
@@ -2698,424 +2754,430 @@
         <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BY1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="CD1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="DB1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="DW1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DX1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="EB1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="EC1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="ED1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="EE1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="EF1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="EG1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="EH1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="EL1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="EM1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="EN1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="EO1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>244</v>
+      <c r="EQ1" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="ER1" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:146" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -3123,160 +3185,160 @@
         <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="AH2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="V2" s="1" t="s">
+      <c r="AL2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF2" s="1" t="s">
+      <c r="BC2" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="BD2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="BE2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BK2" s="1" t="s">
         <v>83</v>
@@ -3285,85 +3347,85 @@
         <v>83</v>
       </c>
       <c r="BM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BO2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="BX2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BP2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="BY2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CO2" s="1" t="s">
         <v>83</v>
@@ -3372,151 +3434,157 @@
         <v>84</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>260</v>
+        <v>406</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="CW2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CY2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DF2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DH2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="DK2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DO2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DQ2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DW2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DY2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DZ2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="EA2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EB2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="ED2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="EE2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="EF2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EG2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EK2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EL2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EO2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EP2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="EQ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="ER2" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3531,150 +3599,150 @@
   <dimension ref="A1:DX5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="11.875" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.875" customWidth="1"/>
-    <col min="12" max="12" width="18.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="15" width="17.5" customWidth="1"/>
-    <col min="16" max="16" width="10.75" customWidth="1"/>
-    <col min="17" max="17" width="24.25" customWidth="1"/>
-    <col min="18" max="18" width="7.625" customWidth="1"/>
-    <col min="19" max="19" width="16.5" customWidth="1"/>
-    <col min="20" max="20" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="16.5" customWidth="1"/>
-    <col min="22" max="22" width="19.75" customWidth="1"/>
-    <col min="23" max="23" width="24.25" customWidth="1"/>
-    <col min="24" max="24" width="11.875" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.77734375" customWidth="1"/>
+    <col min="17" max="17" width="24.21875" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
+    <col min="22" max="22" width="19.77734375" customWidth="1"/>
+    <col min="23" max="23" width="24.21875" customWidth="1"/>
+    <col min="24" max="24" width="11.88671875" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="27" width="14.125" customWidth="1"/>
-    <col min="28" max="28" width="16.5" customWidth="1"/>
+    <col min="26" max="27" width="14.109375" customWidth="1"/>
+    <col min="28" max="28" width="16.44140625" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="15.25" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="14.125" customWidth="1"/>
-    <col min="33" max="33" width="9.625" customWidth="1"/>
-    <col min="34" max="34" width="17.5" customWidth="1"/>
+    <col min="32" max="32" width="14.109375" customWidth="1"/>
+    <col min="33" max="33" width="9.6640625" customWidth="1"/>
+    <col min="34" max="34" width="17.44140625" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="9.625" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" customWidth="1"/>
     <col min="37" max="37" width="22" customWidth="1"/>
-    <col min="38" max="38" width="14.125" customWidth="1"/>
-    <col min="39" max="39" width="18.625" customWidth="1"/>
-    <col min="40" max="40" width="11.875" customWidth="1"/>
-    <col min="41" max="41" width="16.5" customWidth="1"/>
-    <col min="42" max="42" width="10.75" customWidth="1"/>
+    <col min="38" max="38" width="14.109375" customWidth="1"/>
+    <col min="39" max="39" width="18.6640625" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" customWidth="1"/>
+    <col min="41" max="41" width="16.44140625" customWidth="1"/>
+    <col min="42" max="42" width="10.77734375" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
     <col min="44" max="44" width="22" customWidth="1"/>
-    <col min="45" max="45" width="8.625" customWidth="1"/>
-    <col min="46" max="46" width="23.125" customWidth="1"/>
-    <col min="47" max="48" width="11.875" customWidth="1"/>
-    <col min="49" max="49" width="5.625" customWidth="1"/>
-    <col min="50" max="50" width="10.75" customWidth="1"/>
-    <col min="51" max="51" width="14.125" customWidth="1"/>
-    <col min="52" max="52" width="17.5" customWidth="1"/>
-    <col min="53" max="53" width="11.875" customWidth="1"/>
-    <col min="54" max="54" width="16.5" customWidth="1"/>
-    <col min="55" max="55" width="19.75" customWidth="1"/>
-    <col min="56" max="56" width="17.5" customWidth="1"/>
-    <col min="57" max="57" width="16.5" customWidth="1"/>
-    <col min="58" max="58" width="15.25" customWidth="1"/>
-    <col min="59" max="59" width="16.5" customWidth="1"/>
-    <col min="60" max="60" width="20.875" customWidth="1"/>
-    <col min="61" max="61" width="15.25" customWidth="1"/>
-    <col min="62" max="62" width="20.875" customWidth="1"/>
-    <col min="63" max="64" width="16.5" customWidth="1"/>
-    <col min="65" max="65" width="17.5" customWidth="1"/>
-    <col min="66" max="66" width="14.125" customWidth="1"/>
-    <col min="67" max="68" width="15.25" customWidth="1"/>
-    <col min="69" max="69" width="18.625" customWidth="1"/>
+    <col min="45" max="45" width="8.6640625" customWidth="1"/>
+    <col min="46" max="46" width="23.109375" customWidth="1"/>
+    <col min="47" max="48" width="11.88671875" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" customWidth="1"/>
+    <col min="50" max="50" width="10.77734375" customWidth="1"/>
+    <col min="51" max="51" width="14.109375" customWidth="1"/>
+    <col min="52" max="52" width="17.44140625" customWidth="1"/>
+    <col min="53" max="53" width="11.88671875" customWidth="1"/>
+    <col min="54" max="54" width="16.44140625" customWidth="1"/>
+    <col min="55" max="55" width="19.77734375" customWidth="1"/>
+    <col min="56" max="56" width="17.44140625" customWidth="1"/>
+    <col min="57" max="57" width="16.44140625" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" customWidth="1"/>
+    <col min="59" max="59" width="16.44140625" customWidth="1"/>
+    <col min="60" max="60" width="20.88671875" customWidth="1"/>
+    <col min="61" max="61" width="15.21875" customWidth="1"/>
+    <col min="62" max="62" width="20.88671875" customWidth="1"/>
+    <col min="63" max="64" width="16.44140625" customWidth="1"/>
+    <col min="65" max="65" width="17.44140625" customWidth="1"/>
+    <col min="66" max="66" width="14.109375" customWidth="1"/>
+    <col min="67" max="68" width="15.21875" customWidth="1"/>
+    <col min="69" max="69" width="18.6640625" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="17.5" customWidth="1"/>
-    <col min="72" max="72" width="9.625" customWidth="1"/>
-    <col min="73" max="73" width="19.75" customWidth="1"/>
+    <col min="71" max="71" width="17.44140625" customWidth="1"/>
+    <col min="72" max="72" width="9.6640625" customWidth="1"/>
+    <col min="73" max="73" width="19.77734375" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="15.25" customWidth="1"/>
-    <col min="76" max="76" width="24.25" customWidth="1"/>
-    <col min="77" max="78" width="19.75" customWidth="1"/>
-    <col min="79" max="79" width="18.625" customWidth="1"/>
-    <col min="80" max="80" width="26.5" customWidth="1"/>
+    <col min="75" max="75" width="15.21875" customWidth="1"/>
+    <col min="76" max="76" width="24.21875" customWidth="1"/>
+    <col min="77" max="78" width="19.77734375" customWidth="1"/>
+    <col min="79" max="79" width="18.6640625" customWidth="1"/>
+    <col min="80" max="80" width="26.44140625" customWidth="1"/>
     <col min="81" max="81" width="22" customWidth="1"/>
-    <col min="82" max="82" width="25.5" customWidth="1"/>
+    <col min="82" max="82" width="25.44140625" customWidth="1"/>
     <col min="83" max="83" width="22" customWidth="1"/>
-    <col min="84" max="84" width="17.5" customWidth="1"/>
-    <col min="85" max="85" width="9.625" customWidth="1"/>
-    <col min="86" max="86" width="10.75" customWidth="1"/>
+    <col min="84" max="84" width="17.44140625" customWidth="1"/>
+    <col min="85" max="85" width="9.6640625" customWidth="1"/>
+    <col min="86" max="86" width="10.77734375" customWidth="1"/>
     <col min="87" max="87" width="13" customWidth="1"/>
-    <col min="88" max="88" width="10.75" customWidth="1"/>
-    <col min="89" max="89" width="17.5" customWidth="1"/>
-    <col min="90" max="90" width="15.25" customWidth="1"/>
+    <col min="88" max="88" width="10.77734375" customWidth="1"/>
+    <col min="89" max="89" width="17.44140625" customWidth="1"/>
+    <col min="90" max="90" width="15.21875" customWidth="1"/>
     <col min="91" max="91" width="13" customWidth="1"/>
-    <col min="92" max="92" width="16.5" customWidth="1"/>
-    <col min="93" max="93" width="14.125" customWidth="1"/>
-    <col min="94" max="94" width="19.75" customWidth="1"/>
-    <col min="95" max="95" width="11.875" customWidth="1"/>
-    <col min="96" max="96" width="8.625" customWidth="1"/>
+    <col min="92" max="92" width="16.44140625" customWidth="1"/>
+    <col min="93" max="93" width="14.109375" customWidth="1"/>
+    <col min="94" max="94" width="19.77734375" customWidth="1"/>
+    <col min="95" max="95" width="11.88671875" customWidth="1"/>
+    <col min="96" max="96" width="8.6640625" customWidth="1"/>
     <col min="97" max="97" width="13" customWidth="1"/>
-    <col min="98" max="98" width="24.25" customWidth="1"/>
-    <col min="99" max="99" width="7.625" customWidth="1"/>
-    <col min="100" max="100" width="18.625" customWidth="1"/>
-    <col min="101" max="101" width="8.625" customWidth="1"/>
-    <col min="102" max="103" width="19.75" customWidth="1"/>
+    <col min="98" max="98" width="24.21875" customWidth="1"/>
+    <col min="99" max="99" width="7.6640625" customWidth="1"/>
+    <col min="100" max="100" width="18.6640625" customWidth="1"/>
+    <col min="101" max="101" width="8.6640625" customWidth="1"/>
+    <col min="102" max="103" width="19.77734375" customWidth="1"/>
     <col min="104" max="104" width="13" customWidth="1"/>
-    <col min="105" max="105" width="17.5" customWidth="1"/>
-    <col min="106" max="106" width="15.25" customWidth="1"/>
-    <col min="107" max="107" width="19.75" customWidth="1"/>
-    <col min="108" max="108" width="20.875" customWidth="1"/>
-    <col min="109" max="109" width="18.625" customWidth="1"/>
-    <col min="110" max="110" width="11.875" customWidth="1"/>
-    <col min="111" max="111" width="18.625" customWidth="1"/>
-    <col min="112" max="112" width="15.25" customWidth="1"/>
-    <col min="113" max="113" width="14.125" customWidth="1"/>
-    <col min="114" max="114" width="15.25" customWidth="1"/>
-    <col min="115" max="115" width="18.625" customWidth="1"/>
-    <col min="116" max="116" width="15.25" customWidth="1"/>
-    <col min="117" max="117" width="20.875" customWidth="1"/>
-    <col min="118" max="118" width="24.25" customWidth="1"/>
-    <col min="119" max="119" width="19.75" customWidth="1"/>
-    <col min="120" max="120" width="15.25" customWidth="1"/>
+    <col min="105" max="105" width="17.44140625" customWidth="1"/>
+    <col min="106" max="106" width="15.21875" customWidth="1"/>
+    <col min="107" max="107" width="19.77734375" customWidth="1"/>
+    <col min="108" max="108" width="20.88671875" customWidth="1"/>
+    <col min="109" max="109" width="18.6640625" customWidth="1"/>
+    <col min="110" max="110" width="11.88671875" customWidth="1"/>
+    <col min="111" max="111" width="18.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="14.109375" customWidth="1"/>
+    <col min="114" max="114" width="15.21875" customWidth="1"/>
+    <col min="115" max="115" width="18.6640625" customWidth="1"/>
+    <col min="116" max="116" width="15.21875" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="19.77734375" customWidth="1"/>
+    <col min="120" max="120" width="15.21875" customWidth="1"/>
     <col min="121" max="121" width="13" customWidth="1"/>
-    <col min="122" max="122" width="16.5" customWidth="1"/>
-    <col min="123" max="123" width="19.75" customWidth="1"/>
-    <col min="124" max="124" width="23.125" customWidth="1"/>
-    <col min="125" max="125" width="27.625" customWidth="1"/>
-    <col min="126" max="126" width="18.625" customWidth="1"/>
+    <col min="122" max="122" width="16.44140625" customWidth="1"/>
+    <col min="123" max="123" width="19.77734375" customWidth="1"/>
+    <col min="124" max="124" width="23.109375" customWidth="1"/>
+    <col min="125" max="125" width="27.6640625" customWidth="1"/>
+    <col min="126" max="126" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>21</v>
@@ -3683,363 +3751,363 @@
         <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BG1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BI1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="BM1" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="BO1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="CF1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="BQ1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="BW1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="CM1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="CB1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="CF1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="CP1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="CT1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="CU1" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="DA1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="DD1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="DA1" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="DC1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="DD1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="DH1" s="1" t="s">
         <v>76</v>
       </c>
       <c r="DI1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="DJ1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="DK1" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="DN1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="DR1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="DS1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="DU1" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="DV1" s="1" t="s">
-        <v>244</v>
-      </c>
     </row>
-    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>84</v>
@@ -4048,241 +4116,241 @@
         <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AC2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL2" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="W2" s="1" t="s">
+      <c r="AM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AT2" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="AA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AV2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="AZ2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="BA2" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="BB2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="BE2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="BF2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BG2" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="BI2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BJ2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BK2" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BL2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="BO2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BQ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BU2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BW2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BX2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BY2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CB2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CC2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CD2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CE2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CF2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CG2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CI2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CL2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CN2" s="1" t="s">
         <v>83</v>
@@ -4291,108 +4359,108 @@
         <v>84</v>
       </c>
       <c r="CP2" s="1" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="CQ2" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CS2" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CV2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CW2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="CX2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="CY2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="CZ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DB2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DC2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DD2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DH2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DI2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="DL2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DM2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DN2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DR2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DS2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DT2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DU2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DV2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DW2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="DX2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4403,175 +4471,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EI6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.25" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="14.125" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="9.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
-    <col min="14" max="14" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="16" max="16" width="8.625" customWidth="1"/>
-    <col min="17" max="17" width="10.75" customWidth="1"/>
-    <col min="18" max="18" width="8.625" customWidth="1"/>
-    <col min="19" max="19" width="6.625" customWidth="1"/>
-    <col min="20" max="20" width="7.625" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
-    <col min="22" max="22" width="9.625" customWidth="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.88671875" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="10.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.6640625" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" customWidth="1"/>
+    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.77734375" customWidth="1"/>
+    <col min="22" max="22" width="9.6640625" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="16.5" customWidth="1"/>
-    <col min="25" max="25" width="14.125" customWidth="1"/>
-    <col min="26" max="26" width="9.625" customWidth="1"/>
-    <col min="27" max="27" width="11.875" customWidth="1"/>
-    <col min="28" max="28" width="8.625" customWidth="1"/>
-    <col min="29" max="29" width="9.625" customWidth="1"/>
-    <col min="30" max="30" width="23.125" customWidth="1"/>
-    <col min="31" max="31" width="10.75" customWidth="1"/>
-    <col min="32" max="32" width="15.25" customWidth="1"/>
-    <col min="33" max="34" width="14.125" customWidth="1"/>
+    <col min="24" max="24" width="16.44140625" customWidth="1"/>
+    <col min="25" max="25" width="14.109375" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.88671875" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" customWidth="1"/>
+    <col min="30" max="30" width="23.109375" customWidth="1"/>
+    <col min="31" max="31" width="10.77734375" customWidth="1"/>
+    <col min="32" max="32" width="15.21875" customWidth="1"/>
+    <col min="33" max="34" width="14.109375" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.625" customWidth="1"/>
+    <col min="37" max="37" width="9.6640625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.75" customWidth="1"/>
-    <col min="40" max="40" width="14.125" customWidth="1"/>
-    <col min="41" max="41" width="11.875" customWidth="1"/>
-    <col min="42" max="43" width="9.625" customWidth="1"/>
-    <col min="44" max="44" width="14.125" customWidth="1"/>
-    <col min="45" max="45" width="16.5" customWidth="1"/>
-    <col min="46" max="46" width="9.625" customWidth="1"/>
+    <col min="39" max="39" width="10.77734375" customWidth="1"/>
+    <col min="40" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="11.88671875" customWidth="1"/>
+    <col min="42" max="43" width="9.6640625" customWidth="1"/>
+    <col min="44" max="44" width="14.109375" customWidth="1"/>
+    <col min="45" max="45" width="16.44140625" customWidth="1"/>
+    <col min="46" max="46" width="9.6640625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.125" customWidth="1"/>
-    <col min="49" max="49" width="8.625" customWidth="1"/>
-    <col min="50" max="50" width="17.5" customWidth="1"/>
-    <col min="51" max="51" width="11.875" customWidth="1"/>
-    <col min="52" max="52" width="8.625" customWidth="1"/>
-    <col min="53" max="53" width="9.625" customWidth="1"/>
+    <col min="48" max="48" width="14.109375" customWidth="1"/>
+    <col min="49" max="49" width="8.6640625" customWidth="1"/>
+    <col min="50" max="50" width="17.44140625" customWidth="1"/>
+    <col min="51" max="51" width="11.88671875" customWidth="1"/>
+    <col min="52" max="52" width="8.6640625" customWidth="1"/>
+    <col min="53" max="53" width="9.6640625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="16.44140625" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.5" customWidth="1"/>
-    <col min="59" max="59" width="15.25" customWidth="1"/>
-    <col min="60" max="60" width="5.625" customWidth="1"/>
-    <col min="61" max="61" width="17.5" customWidth="1"/>
-    <col min="62" max="62" width="14.125" customWidth="1"/>
-    <col min="63" max="63" width="11.875" customWidth="1"/>
-    <col min="64" max="64" width="8.625" customWidth="1"/>
-    <col min="65" max="65" width="14.125" customWidth="1"/>
-    <col min="66" max="66" width="9.625" customWidth="1"/>
-    <col min="67" max="67" width="17.5" customWidth="1"/>
-    <col min="68" max="68" width="16.5" customWidth="1"/>
-    <col min="69" max="69" width="11.875" customWidth="1"/>
+    <col min="58" max="58" width="16.44140625" customWidth="1"/>
+    <col min="59" max="59" width="15.21875" customWidth="1"/>
+    <col min="60" max="60" width="5.6640625" customWidth="1"/>
+    <col min="61" max="61" width="17.44140625" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" customWidth="1"/>
+    <col min="63" max="63" width="11.88671875" customWidth="1"/>
+    <col min="64" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="14.109375" customWidth="1"/>
+    <col min="66" max="66" width="9.6640625" customWidth="1"/>
+    <col min="67" max="67" width="17.44140625" customWidth="1"/>
+    <col min="68" max="68" width="16.44140625" customWidth="1"/>
+    <col min="69" max="69" width="11.88671875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.875" customWidth="1"/>
-    <col min="72" max="72" width="15.25" customWidth="1"/>
-    <col min="73" max="73" width="11.875" customWidth="1"/>
+    <col min="71" max="71" width="11.88671875" customWidth="1"/>
+    <col min="72" max="72" width="15.21875" customWidth="1"/>
+    <col min="73" max="73" width="11.88671875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.5" customWidth="1"/>
-    <col min="76" max="76" width="20.875" customWidth="1"/>
-    <col min="77" max="77" width="16.5" customWidth="1"/>
+    <col min="75" max="75" width="17.44140625" customWidth="1"/>
+    <col min="76" max="76" width="20.88671875" customWidth="1"/>
+    <col min="77" max="77" width="16.44140625" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.875" customWidth="1"/>
-    <col min="80" max="80" width="10.75" customWidth="1"/>
-    <col min="81" max="81" width="11.875" customWidth="1"/>
-    <col min="82" max="83" width="7.625" customWidth="1"/>
-    <col min="84" max="85" width="17.5" customWidth="1"/>
-    <col min="86" max="86" width="16.5" customWidth="1"/>
-    <col min="87" max="87" width="11.875" customWidth="1"/>
-    <col min="88" max="88" width="14.125" customWidth="1"/>
-    <col min="89" max="89" width="11.875" customWidth="1"/>
-    <col min="90" max="90" width="10.75" customWidth="1"/>
-    <col min="91" max="91" width="11.875" customWidth="1"/>
-    <col min="92" max="92" width="19.75" customWidth="1"/>
-    <col min="93" max="93" width="16.5" customWidth="1"/>
-    <col min="94" max="94" width="23.125" customWidth="1"/>
-    <col min="95" max="95" width="7.625" customWidth="1"/>
-    <col min="96" max="96" width="18.625" customWidth="1"/>
-    <col min="97" max="97" width="10.75" customWidth="1"/>
-    <col min="98" max="98" width="14.125" customWidth="1"/>
+    <col min="79" max="79" width="11.88671875" customWidth="1"/>
+    <col min="80" max="80" width="10.77734375" customWidth="1"/>
+    <col min="81" max="81" width="11.88671875" customWidth="1"/>
+    <col min="82" max="83" width="7.6640625" customWidth="1"/>
+    <col min="84" max="85" width="17.44140625" customWidth="1"/>
+    <col min="86" max="86" width="16.44140625" customWidth="1"/>
+    <col min="87" max="87" width="11.88671875" customWidth="1"/>
+    <col min="88" max="88" width="14.109375" customWidth="1"/>
+    <col min="89" max="89" width="11.88671875" customWidth="1"/>
+    <col min="90" max="90" width="10.77734375" customWidth="1"/>
+    <col min="91" max="91" width="11.88671875" customWidth="1"/>
+    <col min="92" max="92" width="19.77734375" customWidth="1"/>
+    <col min="93" max="93" width="16.44140625" customWidth="1"/>
+    <col min="94" max="94" width="23.109375" customWidth="1"/>
+    <col min="95" max="95" width="7.6640625" customWidth="1"/>
+    <col min="96" max="96" width="18.6640625" customWidth="1"/>
+    <col min="97" max="97" width="10.77734375" customWidth="1"/>
+    <col min="98" max="98" width="14.109375" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.5" customWidth="1"/>
+    <col min="100" max="100" width="16.44140625" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.625" customWidth="1"/>
-    <col min="104" max="104" width="16.5" customWidth="1"/>
-    <col min="105" max="105" width="14.125" customWidth="1"/>
-    <col min="106" max="106" width="11.875" customWidth="1"/>
-    <col min="107" max="108" width="15.25" customWidth="1"/>
-    <col min="109" max="109" width="9.625" customWidth="1"/>
+    <col min="103" max="103" width="9.6640625" customWidth="1"/>
+    <col min="104" max="104" width="16.44140625" customWidth="1"/>
+    <col min="105" max="105" width="14.109375" customWidth="1"/>
+    <col min="106" max="106" width="11.88671875" customWidth="1"/>
+    <col min="107" max="108" width="15.21875" customWidth="1"/>
+    <col min="109" max="109" width="9.6640625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.625" customWidth="1"/>
-    <col min="112" max="112" width="15.25" customWidth="1"/>
-    <col min="113" max="113" width="17.5" customWidth="1"/>
-    <col min="114" max="114" width="14.125" customWidth="1"/>
-    <col min="115" max="115" width="19.75" customWidth="1"/>
-    <col min="116" max="116" width="16.5" customWidth="1"/>
-    <col min="117" max="117" width="20.875" customWidth="1"/>
-    <col min="118" max="118" width="24.25" customWidth="1"/>
-    <col min="119" max="119" width="16.5" customWidth="1"/>
-    <col min="120" max="120" width="17.5" customWidth="1"/>
+    <col min="111" max="111" width="9.6640625" customWidth="1"/>
+    <col min="112" max="112" width="15.21875" customWidth="1"/>
+    <col min="113" max="113" width="17.44140625" customWidth="1"/>
+    <col min="114" max="114" width="14.109375" customWidth="1"/>
+    <col min="115" max="115" width="19.77734375" customWidth="1"/>
+    <col min="116" max="116" width="16.44140625" customWidth="1"/>
+    <col min="117" max="117" width="20.88671875" customWidth="1"/>
+    <col min="118" max="118" width="24.21875" customWidth="1"/>
+    <col min="119" max="119" width="16.44140625" customWidth="1"/>
+    <col min="120" max="120" width="17.44140625" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.875" customWidth="1"/>
-    <col min="124" max="124" width="19.75" customWidth="1"/>
-    <col min="125" max="125" width="17.5" customWidth="1"/>
-    <col min="126" max="126" width="20.875" customWidth="1"/>
-    <col min="127" max="127" width="18.625" customWidth="1"/>
-    <col min="128" max="128" width="8.625" customWidth="1"/>
-    <col min="129" max="129" width="15.25" customWidth="1"/>
+    <col min="122" max="123" width="20.88671875" customWidth="1"/>
+    <col min="124" max="124" width="19.77734375" customWidth="1"/>
+    <col min="125" max="125" width="17.44140625" customWidth="1"/>
+    <col min="126" max="126" width="20.88671875" customWidth="1"/>
+    <col min="127" max="127" width="18.6640625" customWidth="1"/>
+    <col min="128" max="128" width="8.6640625" customWidth="1"/>
+    <col min="129" max="129" width="15.21875" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="16.5" customWidth="1"/>
-    <col min="132" max="132" width="10.75" customWidth="1"/>
-    <col min="133" max="133" width="11.875" customWidth="1"/>
-    <col min="134" max="134" width="15.25" customWidth="1"/>
-    <col min="135" max="135" width="16.5" customWidth="1"/>
+    <col min="131" max="131" width="16.44140625" customWidth="1"/>
+    <col min="132" max="132" width="10.77734375" customWidth="1"/>
+    <col min="133" max="133" width="11.88671875" customWidth="1"/>
+    <col min="134" max="134" width="15.21875" customWidth="1"/>
+    <col min="135" max="135" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>3</v>
@@ -4589,381 +4657,381 @@
         <v>23</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="U1" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AE1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="AR1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="AX1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="BF1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="BU1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="CV1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="DC1" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="DD1" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="CV1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="CW1" s="1" t="s">
+      <c r="DE1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DH1" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="DJ1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="DK1" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="DL1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="DM1" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="DN1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="DO1" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="DP1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="DR1" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="DS1" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="EA1" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="DW1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="DY1" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="DZ1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="EA1" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="EB1" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="EC1" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="ED1" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="EE1" s="1" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>84</v>
@@ -4972,100 +5040,100 @@
         <v>86</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>88</v>
+        <v>398</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>84</v>
@@ -5074,217 +5142,217 @@
         <v>86</v>
       </c>
       <c r="AT2" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV2" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BB2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BX2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="DC2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DD2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DE2" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="AU2" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AV2" s="1" t="s">
+      <c r="DF2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="DG2" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="DI2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="DJ2" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="AW2" s="1" t="s">
+      <c r="DK2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DL2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="DM2" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="DN2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="DO2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DP2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="DQ2" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="DR2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DS2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DT2" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DU2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="DV2" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="DW2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DX2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="DY2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="EA2" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="AX2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BI2" s="1" t="s">
+      <c r="EC2" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="BJ2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="DI2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DJ2" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="DK2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DL2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="DM2" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="DN2" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="DO2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DP2" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="DQ2" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="DR2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DS2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DT2" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="DU2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="DV2" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="DW2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DX2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="DY2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="EA2" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="EC2" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="ED2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EE2" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="EG2" s="1" t="s">
         <v>83</v>
       </c>
       <c r="EI2" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/用例数据/沪A/普通买卖/股票买入虚拟股东/测试结果.xlsx
+++ b/用例数据/沪A/普通买卖/股票买入虚拟股东/测试结果.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25860" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -1240,20 +1240,34 @@
     <t>20220105000000</t>
   </si>
   <si>
-    <t>100697509.200</t>
-  </si>
-  <si>
     <t>998844.400</t>
   </si>
   <si>
     <t>1052.0000</t>
+  </si>
+  <si>
+    <r>
+      <t>1000000.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1263,6 +1277,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1289,9 +1311,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1598,18 +1621,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1869,7 +1892,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -1904,7 +1927,7 @@
         <v>88</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>89</v>
@@ -2072,7 +2095,7 @@
         <v>88</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>89</v>
@@ -2129,12 +2152,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2150,78 +2173,78 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="20.875" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="10.77734375" customWidth="1"/>
-    <col min="15" max="15" width="11.88671875" customWidth="1"/>
-    <col min="16" max="17" width="15.21875" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" customWidth="1"/>
-    <col min="22" max="22" width="11.88671875" customWidth="1"/>
-    <col min="23" max="23" width="8.6640625" customWidth="1"/>
-    <col min="24" max="24" width="10.77734375" customWidth="1"/>
-    <col min="25" max="25" width="7.6640625" customWidth="1"/>
-    <col min="26" max="26" width="17.44140625" customWidth="1"/>
-    <col min="27" max="27" width="9.6640625" customWidth="1"/>
-    <col min="28" max="28" width="15.21875" customWidth="1"/>
-    <col min="29" max="29" width="10.77734375" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="11" max="11" width="14.125" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="10.75" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="17" width="15.25" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
+    <col min="23" max="23" width="8.625" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
+    <col min="25" max="25" width="7.625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
+    <col min="27" max="27" width="9.625" customWidth="1"/>
+    <col min="28" max="28" width="15.25" customWidth="1"/>
+    <col min="29" max="29" width="10.75" customWidth="1"/>
+    <col min="30" max="30" width="15.25" customWidth="1"/>
     <col min="31" max="31" width="22" customWidth="1"/>
-    <col min="32" max="32" width="11.88671875" customWidth="1"/>
-    <col min="33" max="33" width="20.88671875" customWidth="1"/>
-    <col min="34" max="34" width="24.21875" customWidth="1"/>
-    <col min="35" max="35" width="23.109375" customWidth="1"/>
+    <col min="32" max="32" width="11.875" customWidth="1"/>
+    <col min="33" max="33" width="20.875" customWidth="1"/>
+    <col min="34" max="34" width="24.25" customWidth="1"/>
+    <col min="35" max="35" width="23.125" customWidth="1"/>
     <col min="36" max="37" width="13" customWidth="1"/>
-    <col min="38" max="39" width="14.109375" customWidth="1"/>
-    <col min="40" max="41" width="15.21875" customWidth="1"/>
+    <col min="38" max="39" width="14.125" customWidth="1"/>
+    <col min="40" max="41" width="15.25" customWidth="1"/>
     <col min="42" max="43" width="13" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="46" max="46" width="23.109375" customWidth="1"/>
-    <col min="47" max="47" width="19.77734375" customWidth="1"/>
-    <col min="48" max="48" width="23.109375" customWidth="1"/>
-    <col min="49" max="49" width="15.21875" customWidth="1"/>
-    <col min="50" max="50" width="18.6640625" customWidth="1"/>
-    <col min="51" max="51" width="17.44140625" customWidth="1"/>
-    <col min="52" max="53" width="16.44140625" customWidth="1"/>
-    <col min="54" max="55" width="17.44140625" customWidth="1"/>
-    <col min="56" max="56" width="16.44140625" customWidth="1"/>
-    <col min="57" max="57" width="17.44140625" customWidth="1"/>
-    <col min="58" max="58" width="18.6640625" customWidth="1"/>
-    <col min="59" max="59" width="25.44140625" customWidth="1"/>
-    <col min="60" max="60" width="27.6640625" customWidth="1"/>
-    <col min="61" max="61" width="20.88671875" customWidth="1"/>
-    <col min="62" max="62" width="16.44140625" customWidth="1"/>
-    <col min="63" max="63" width="23.109375" customWidth="1"/>
-    <col min="64" max="64" width="9.6640625" customWidth="1"/>
-    <col min="65" max="65" width="23.109375" customWidth="1"/>
-    <col min="66" max="66" width="18.6640625" customWidth="1"/>
-    <col min="67" max="67" width="24.21875" customWidth="1"/>
-    <col min="68" max="68" width="19.77734375" customWidth="1"/>
-    <col min="69" max="69" width="15.21875" customWidth="1"/>
-    <col min="70" max="70" width="16.44140625" customWidth="1"/>
-    <col min="71" max="71" width="18.6640625" customWidth="1"/>
-    <col min="72" max="72" width="19.77734375" customWidth="1"/>
-    <col min="73" max="73" width="26.44140625" customWidth="1"/>
-    <col min="74" max="74" width="14.109375" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="46" width="23.125" customWidth="1"/>
+    <col min="47" max="47" width="19.75" customWidth="1"/>
+    <col min="48" max="48" width="23.125" customWidth="1"/>
+    <col min="49" max="49" width="15.25" customWidth="1"/>
+    <col min="50" max="50" width="18.625" customWidth="1"/>
+    <col min="51" max="51" width="17.5" customWidth="1"/>
+    <col min="52" max="53" width="16.5" customWidth="1"/>
+    <col min="54" max="55" width="17.5" customWidth="1"/>
+    <col min="56" max="56" width="16.5" customWidth="1"/>
+    <col min="57" max="57" width="17.5" customWidth="1"/>
+    <col min="58" max="58" width="18.625" customWidth="1"/>
+    <col min="59" max="59" width="25.5" customWidth="1"/>
+    <col min="60" max="60" width="27.625" customWidth="1"/>
+    <col min="61" max="61" width="20.875" customWidth="1"/>
+    <col min="62" max="62" width="16.5" customWidth="1"/>
+    <col min="63" max="63" width="23.125" customWidth="1"/>
+    <col min="64" max="64" width="9.625" customWidth="1"/>
+    <col min="65" max="65" width="23.125" customWidth="1"/>
+    <col min="66" max="66" width="18.625" customWidth="1"/>
+    <col min="67" max="67" width="24.25" customWidth="1"/>
+    <col min="68" max="68" width="19.75" customWidth="1"/>
+    <col min="69" max="69" width="15.25" customWidth="1"/>
+    <col min="70" max="70" width="16.5" customWidth="1"/>
+    <col min="71" max="71" width="18.625" customWidth="1"/>
+    <col min="72" max="72" width="19.75" customWidth="1"/>
+    <col min="73" max="73" width="26.5" customWidth="1"/>
+    <col min="74" max="74" width="14.125" customWidth="1"/>
     <col min="75" max="75" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -2460,7 +2483,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>397</v>
       </c>
@@ -2699,13 +2722,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2716,22 +2739,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:ER2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="7" max="7" width="12.77734375" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" customWidth="1"/>
-    <col min="25" max="25" width="16.44140625" customWidth="1"/>
-    <col min="60" max="60" width="16.109375" customWidth="1"/>
-    <col min="61" max="61" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+    <col min="8" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="18.375" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="25" max="25" width="16.5" customWidth="1"/>
+    <col min="34" max="34" width="15" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.125" customWidth="1"/>
+    <col min="61" max="61" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3177,7 +3201,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:148" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -3274,8 +3298,8 @@
       <c r="AG2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AH2" s="1" t="s">
-        <v>405</v>
+      <c r="AH2" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="AI2" s="1" t="s">
         <v>89</v>
@@ -3446,7 +3470,7 @@
         <v>89</v>
       </c>
       <c r="CU2" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>253</v>
@@ -3590,7 +3614,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3602,130 +3626,130 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="8" max="8" width="9.6640625" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="5" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" customWidth="1"/>
+    <col min="8" max="8" width="9.625" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="17.44140625" customWidth="1"/>
-    <col min="16" max="16" width="10.77734375" customWidth="1"/>
-    <col min="17" max="17" width="24.21875" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.44140625" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" customWidth="1"/>
-    <col min="21" max="21" width="16.44140625" customWidth="1"/>
-    <col min="22" max="22" width="19.77734375" customWidth="1"/>
-    <col min="23" max="23" width="24.21875" customWidth="1"/>
-    <col min="24" max="24" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="18.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="15" width="17.5" customWidth="1"/>
+    <col min="16" max="16" width="10.75" customWidth="1"/>
+    <col min="17" max="17" width="24.25" customWidth="1"/>
+    <col min="18" max="18" width="7.625" customWidth="1"/>
+    <col min="19" max="19" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="22" max="22" width="19.75" customWidth="1"/>
+    <col min="23" max="23" width="24.25" customWidth="1"/>
+    <col min="24" max="24" width="11.875" customWidth="1"/>
     <col min="25" max="25" width="13" customWidth="1"/>
-    <col min="26" max="27" width="14.109375" customWidth="1"/>
-    <col min="28" max="28" width="16.44140625" customWidth="1"/>
+    <col min="26" max="27" width="14.125" customWidth="1"/>
+    <col min="28" max="28" width="16.5" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="30" max="30" width="15.25" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" customWidth="1"/>
-    <col min="33" max="33" width="9.6640625" customWidth="1"/>
-    <col min="34" max="34" width="17.44140625" customWidth="1"/>
+    <col min="32" max="32" width="14.125" customWidth="1"/>
+    <col min="33" max="33" width="9.625" customWidth="1"/>
+    <col min="34" max="34" width="17.5" customWidth="1"/>
     <col min="35" max="35" width="13" customWidth="1"/>
-    <col min="36" max="36" width="9.6640625" customWidth="1"/>
+    <col min="36" max="36" width="9.625" customWidth="1"/>
     <col min="37" max="37" width="22" customWidth="1"/>
-    <col min="38" max="38" width="14.109375" customWidth="1"/>
-    <col min="39" max="39" width="18.6640625" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" customWidth="1"/>
-    <col min="41" max="41" width="16.44140625" customWidth="1"/>
-    <col min="42" max="42" width="10.77734375" customWidth="1"/>
+    <col min="38" max="38" width="14.125" customWidth="1"/>
+    <col min="39" max="39" width="18.625" customWidth="1"/>
+    <col min="40" max="40" width="11.875" customWidth="1"/>
+    <col min="41" max="41" width="16.5" customWidth="1"/>
+    <col min="42" max="42" width="10.75" customWidth="1"/>
     <col min="43" max="43" width="13" customWidth="1"/>
     <col min="44" max="44" width="22" customWidth="1"/>
-    <col min="45" max="45" width="8.6640625" customWidth="1"/>
-    <col min="46" max="46" width="23.109375" customWidth="1"/>
-    <col min="47" max="48" width="11.88671875" customWidth="1"/>
-    <col min="49" max="49" width="5.6640625" customWidth="1"/>
-    <col min="50" max="50" width="10.77734375" customWidth="1"/>
-    <col min="51" max="51" width="14.109375" customWidth="1"/>
-    <col min="52" max="52" width="17.44140625" customWidth="1"/>
-    <col min="53" max="53" width="11.88671875" customWidth="1"/>
-    <col min="54" max="54" width="16.44140625" customWidth="1"/>
-    <col min="55" max="55" width="19.77734375" customWidth="1"/>
-    <col min="56" max="56" width="17.44140625" customWidth="1"/>
-    <col min="57" max="57" width="16.44140625" customWidth="1"/>
-    <col min="58" max="58" width="15.21875" customWidth="1"/>
-    <col min="59" max="59" width="16.44140625" customWidth="1"/>
-    <col min="60" max="60" width="20.88671875" customWidth="1"/>
-    <col min="61" max="61" width="15.21875" customWidth="1"/>
-    <col min="62" max="62" width="20.88671875" customWidth="1"/>
-    <col min="63" max="64" width="16.44140625" customWidth="1"/>
-    <col min="65" max="65" width="17.44140625" customWidth="1"/>
-    <col min="66" max="66" width="14.109375" customWidth="1"/>
-    <col min="67" max="68" width="15.21875" customWidth="1"/>
-    <col min="69" max="69" width="18.6640625" customWidth="1"/>
+    <col min="45" max="45" width="8.625" customWidth="1"/>
+    <col min="46" max="46" width="23.125" customWidth="1"/>
+    <col min="47" max="48" width="11.875" customWidth="1"/>
+    <col min="49" max="49" width="5.625" customWidth="1"/>
+    <col min="50" max="50" width="10.75" customWidth="1"/>
+    <col min="51" max="51" width="14.125" customWidth="1"/>
+    <col min="52" max="52" width="17.5" customWidth="1"/>
+    <col min="53" max="53" width="11.875" customWidth="1"/>
+    <col min="54" max="54" width="16.5" customWidth="1"/>
+    <col min="55" max="55" width="19.75" customWidth="1"/>
+    <col min="56" max="56" width="17.5" customWidth="1"/>
+    <col min="57" max="57" width="16.5" customWidth="1"/>
+    <col min="58" max="58" width="15.25" customWidth="1"/>
+    <col min="59" max="59" width="16.5" customWidth="1"/>
+    <col min="60" max="60" width="20.875" customWidth="1"/>
+    <col min="61" max="61" width="15.25" customWidth="1"/>
+    <col min="62" max="62" width="20.875" customWidth="1"/>
+    <col min="63" max="64" width="16.5" customWidth="1"/>
+    <col min="65" max="65" width="17.5" customWidth="1"/>
+    <col min="66" max="66" width="14.125" customWidth="1"/>
+    <col min="67" max="68" width="15.25" customWidth="1"/>
+    <col min="69" max="69" width="18.625" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="17.44140625" customWidth="1"/>
-    <col min="72" max="72" width="9.6640625" customWidth="1"/>
-    <col min="73" max="73" width="19.77734375" customWidth="1"/>
+    <col min="71" max="71" width="17.5" customWidth="1"/>
+    <col min="72" max="72" width="9.625" customWidth="1"/>
+    <col min="73" max="73" width="19.75" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="15.21875" customWidth="1"/>
-    <col min="76" max="76" width="24.21875" customWidth="1"/>
-    <col min="77" max="78" width="19.77734375" customWidth="1"/>
-    <col min="79" max="79" width="18.6640625" customWidth="1"/>
-    <col min="80" max="80" width="26.44140625" customWidth="1"/>
+    <col min="75" max="75" width="15.25" customWidth="1"/>
+    <col min="76" max="76" width="24.25" customWidth="1"/>
+    <col min="77" max="78" width="19.75" customWidth="1"/>
+    <col min="79" max="79" width="18.625" customWidth="1"/>
+    <col min="80" max="80" width="26.5" customWidth="1"/>
     <col min="81" max="81" width="22" customWidth="1"/>
-    <col min="82" max="82" width="25.44140625" customWidth="1"/>
+    <col min="82" max="82" width="25.5" customWidth="1"/>
     <col min="83" max="83" width="22" customWidth="1"/>
-    <col min="84" max="84" width="17.44140625" customWidth="1"/>
-    <col min="85" max="85" width="9.6640625" customWidth="1"/>
-    <col min="86" max="86" width="10.77734375" customWidth="1"/>
+    <col min="84" max="84" width="17.5" customWidth="1"/>
+    <col min="85" max="85" width="9.625" customWidth="1"/>
+    <col min="86" max="86" width="10.75" customWidth="1"/>
     <col min="87" max="87" width="13" customWidth="1"/>
-    <col min="88" max="88" width="10.77734375" customWidth="1"/>
-    <col min="89" max="89" width="17.44140625" customWidth="1"/>
-    <col min="90" max="90" width="15.21875" customWidth="1"/>
+    <col min="88" max="88" width="10.75" customWidth="1"/>
+    <col min="89" max="89" width="17.5" customWidth="1"/>
+    <col min="90" max="90" width="15.25" customWidth="1"/>
     <col min="91" max="91" width="13" customWidth="1"/>
-    <col min="92" max="92" width="16.44140625" customWidth="1"/>
-    <col min="93" max="93" width="14.109375" customWidth="1"/>
-    <col min="94" max="94" width="19.77734375" customWidth="1"/>
-    <col min="95" max="95" width="11.88671875" customWidth="1"/>
-    <col min="96" max="96" width="8.6640625" customWidth="1"/>
+    <col min="92" max="92" width="16.5" customWidth="1"/>
+    <col min="93" max="93" width="14.125" customWidth="1"/>
+    <col min="94" max="94" width="19.75" customWidth="1"/>
+    <col min="95" max="95" width="11.875" customWidth="1"/>
+    <col min="96" max="96" width="8.625" customWidth="1"/>
     <col min="97" max="97" width="13" customWidth="1"/>
-    <col min="98" max="98" width="24.21875" customWidth="1"/>
-    <col min="99" max="99" width="7.6640625" customWidth="1"/>
-    <col min="100" max="100" width="18.6640625" customWidth="1"/>
-    <col min="101" max="101" width="8.6640625" customWidth="1"/>
-    <col min="102" max="103" width="19.77734375" customWidth="1"/>
+    <col min="98" max="98" width="24.25" customWidth="1"/>
+    <col min="99" max="99" width="7.625" customWidth="1"/>
+    <col min="100" max="100" width="18.625" customWidth="1"/>
+    <col min="101" max="101" width="8.625" customWidth="1"/>
+    <col min="102" max="103" width="19.75" customWidth="1"/>
     <col min="104" max="104" width="13" customWidth="1"/>
-    <col min="105" max="105" width="17.44140625" customWidth="1"/>
-    <col min="106" max="106" width="15.21875" customWidth="1"/>
-    <col min="107" max="107" width="19.77734375" customWidth="1"/>
-    <col min="108" max="108" width="20.88671875" customWidth="1"/>
-    <col min="109" max="109" width="18.6640625" customWidth="1"/>
-    <col min="110" max="110" width="11.88671875" customWidth="1"/>
-    <col min="111" max="111" width="18.6640625" customWidth="1"/>
-    <col min="112" max="112" width="15.21875" customWidth="1"/>
-    <col min="113" max="113" width="14.109375" customWidth="1"/>
-    <col min="114" max="114" width="15.21875" customWidth="1"/>
-    <col min="115" max="115" width="18.6640625" customWidth="1"/>
-    <col min="116" max="116" width="15.21875" customWidth="1"/>
-    <col min="117" max="117" width="20.88671875" customWidth="1"/>
-    <col min="118" max="118" width="24.21875" customWidth="1"/>
-    <col min="119" max="119" width="19.77734375" customWidth="1"/>
-    <col min="120" max="120" width="15.21875" customWidth="1"/>
+    <col min="105" max="105" width="17.5" customWidth="1"/>
+    <col min="106" max="106" width="15.25" customWidth="1"/>
+    <col min="107" max="107" width="19.75" customWidth="1"/>
+    <col min="108" max="108" width="20.875" customWidth="1"/>
+    <col min="109" max="109" width="18.625" customWidth="1"/>
+    <col min="110" max="110" width="11.875" customWidth="1"/>
+    <col min="111" max="111" width="18.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="14.125" customWidth="1"/>
+    <col min="114" max="114" width="15.25" customWidth="1"/>
+    <col min="115" max="115" width="18.625" customWidth="1"/>
+    <col min="116" max="116" width="15.25" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="19.75" customWidth="1"/>
+    <col min="120" max="120" width="15.25" customWidth="1"/>
     <col min="121" max="121" width="13" customWidth="1"/>
-    <col min="122" max="122" width="16.44140625" customWidth="1"/>
-    <col min="123" max="123" width="19.77734375" customWidth="1"/>
-    <col min="124" max="124" width="23.109375" customWidth="1"/>
-    <col min="125" max="125" width="27.6640625" customWidth="1"/>
-    <col min="126" max="126" width="18.6640625" customWidth="1"/>
+    <col min="122" max="122" width="16.5" customWidth="1"/>
+    <col min="123" max="123" width="19.75" customWidth="1"/>
+    <col min="124" max="124" width="23.125" customWidth="1"/>
+    <col min="125" max="125" width="27.625" customWidth="1"/>
+    <col min="126" max="126" width="18.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>97</v>
       </c>
@@ -4105,7 +4129,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>386</v>
       </c>
@@ -4458,9 +4482,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:128" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4475,136 +4499,136 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" customWidth="1"/>
-    <col min="4" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="7.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1"/>
-    <col min="9" max="9" width="7.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="11.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.6640625" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="10.77734375" customWidth="1"/>
-    <col min="18" max="18" width="8.6640625" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
-    <col min="21" max="21" width="10.77734375" customWidth="1"/>
-    <col min="22" max="22" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15.25" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="9.625" customWidth="1"/>
+    <col min="16" max="16" width="8.625" customWidth="1"/>
+    <col min="17" max="17" width="10.75" customWidth="1"/>
+    <col min="18" max="18" width="8.625" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="7.625" customWidth="1"/>
+    <col min="21" max="21" width="10.75" customWidth="1"/>
+    <col min="22" max="22" width="9.625" customWidth="1"/>
     <col min="23" max="23" width="13" customWidth="1"/>
-    <col min="24" max="24" width="16.44140625" customWidth="1"/>
-    <col min="25" max="25" width="14.109375" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" customWidth="1"/>
-    <col min="27" max="27" width="11.88671875" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" customWidth="1"/>
-    <col min="30" max="30" width="23.109375" customWidth="1"/>
-    <col min="31" max="31" width="10.77734375" customWidth="1"/>
-    <col min="32" max="32" width="15.21875" customWidth="1"/>
-    <col min="33" max="34" width="14.109375" customWidth="1"/>
+    <col min="24" max="24" width="16.5" customWidth="1"/>
+    <col min="25" max="25" width="14.125" customWidth="1"/>
+    <col min="26" max="26" width="9.625" customWidth="1"/>
+    <col min="27" max="27" width="11.875" customWidth="1"/>
+    <col min="28" max="28" width="8.625" customWidth="1"/>
+    <col min="29" max="29" width="9.625" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="31" width="10.75" customWidth="1"/>
+    <col min="32" max="32" width="15.25" customWidth="1"/>
+    <col min="33" max="34" width="14.125" customWidth="1"/>
     <col min="35" max="36" width="13" customWidth="1"/>
-    <col min="37" max="37" width="9.6640625" customWidth="1"/>
+    <col min="37" max="37" width="9.625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="10.77734375" customWidth="1"/>
-    <col min="40" max="40" width="14.109375" customWidth="1"/>
-    <col min="41" max="41" width="11.88671875" customWidth="1"/>
-    <col min="42" max="43" width="9.6640625" customWidth="1"/>
-    <col min="44" max="44" width="14.109375" customWidth="1"/>
-    <col min="45" max="45" width="16.44140625" customWidth="1"/>
-    <col min="46" max="46" width="9.6640625" customWidth="1"/>
+    <col min="39" max="39" width="10.75" customWidth="1"/>
+    <col min="40" max="40" width="14.125" customWidth="1"/>
+    <col min="41" max="41" width="11.875" customWidth="1"/>
+    <col min="42" max="43" width="9.625" customWidth="1"/>
+    <col min="44" max="44" width="14.125" customWidth="1"/>
+    <col min="45" max="45" width="16.5" customWidth="1"/>
+    <col min="46" max="46" width="9.625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="48" width="14.109375" customWidth="1"/>
-    <col min="49" max="49" width="8.6640625" customWidth="1"/>
-    <col min="50" max="50" width="17.44140625" customWidth="1"/>
-    <col min="51" max="51" width="11.88671875" customWidth="1"/>
-    <col min="52" max="52" width="8.6640625" customWidth="1"/>
-    <col min="53" max="53" width="9.6640625" customWidth="1"/>
+    <col min="48" max="48" width="14.125" customWidth="1"/>
+    <col min="49" max="49" width="8.625" customWidth="1"/>
+    <col min="50" max="50" width="17.5" customWidth="1"/>
+    <col min="51" max="51" width="11.875" customWidth="1"/>
+    <col min="52" max="52" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="9.625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="16.44140625" customWidth="1"/>
+    <col min="55" max="55" width="16.5" customWidth="1"/>
     <col min="56" max="57" width="13" customWidth="1"/>
-    <col min="58" max="58" width="16.44140625" customWidth="1"/>
-    <col min="59" max="59" width="15.21875" customWidth="1"/>
-    <col min="60" max="60" width="5.6640625" customWidth="1"/>
-    <col min="61" max="61" width="17.44140625" customWidth="1"/>
-    <col min="62" max="62" width="14.109375" customWidth="1"/>
-    <col min="63" max="63" width="11.88671875" customWidth="1"/>
-    <col min="64" max="64" width="8.6640625" customWidth="1"/>
-    <col min="65" max="65" width="14.109375" customWidth="1"/>
-    <col min="66" max="66" width="9.6640625" customWidth="1"/>
-    <col min="67" max="67" width="17.44140625" customWidth="1"/>
-    <col min="68" max="68" width="16.44140625" customWidth="1"/>
-    <col min="69" max="69" width="11.88671875" customWidth="1"/>
+    <col min="58" max="58" width="16.5" customWidth="1"/>
+    <col min="59" max="59" width="15.25" customWidth="1"/>
+    <col min="60" max="60" width="5.625" customWidth="1"/>
+    <col min="61" max="61" width="17.5" customWidth="1"/>
+    <col min="62" max="62" width="14.125" customWidth="1"/>
+    <col min="63" max="63" width="11.875" customWidth="1"/>
+    <col min="64" max="64" width="8.625" customWidth="1"/>
+    <col min="65" max="65" width="14.125" customWidth="1"/>
+    <col min="66" max="66" width="9.625" customWidth="1"/>
+    <col min="67" max="67" width="17.5" customWidth="1"/>
+    <col min="68" max="68" width="16.5" customWidth="1"/>
+    <col min="69" max="69" width="11.875" customWidth="1"/>
     <col min="70" max="70" width="13" customWidth="1"/>
-    <col min="71" max="71" width="11.88671875" customWidth="1"/>
-    <col min="72" max="72" width="15.21875" customWidth="1"/>
-    <col min="73" max="73" width="11.88671875" customWidth="1"/>
+    <col min="71" max="71" width="11.875" customWidth="1"/>
+    <col min="72" max="72" width="15.25" customWidth="1"/>
+    <col min="73" max="73" width="11.875" customWidth="1"/>
     <col min="74" max="74" width="13" customWidth="1"/>
-    <col min="75" max="75" width="17.44140625" customWidth="1"/>
-    <col min="76" max="76" width="20.88671875" customWidth="1"/>
-    <col min="77" max="77" width="16.44140625" customWidth="1"/>
+    <col min="75" max="75" width="17.5" customWidth="1"/>
+    <col min="76" max="76" width="20.875" customWidth="1"/>
+    <col min="77" max="77" width="16.5" customWidth="1"/>
     <col min="78" max="78" width="13" customWidth="1"/>
-    <col min="79" max="79" width="11.88671875" customWidth="1"/>
-    <col min="80" max="80" width="10.77734375" customWidth="1"/>
-    <col min="81" max="81" width="11.88671875" customWidth="1"/>
-    <col min="82" max="83" width="7.6640625" customWidth="1"/>
-    <col min="84" max="85" width="17.44140625" customWidth="1"/>
-    <col min="86" max="86" width="16.44140625" customWidth="1"/>
-    <col min="87" max="87" width="11.88671875" customWidth="1"/>
-    <col min="88" max="88" width="14.109375" customWidth="1"/>
-    <col min="89" max="89" width="11.88671875" customWidth="1"/>
-    <col min="90" max="90" width="10.77734375" customWidth="1"/>
-    <col min="91" max="91" width="11.88671875" customWidth="1"/>
-    <col min="92" max="92" width="19.77734375" customWidth="1"/>
-    <col min="93" max="93" width="16.44140625" customWidth="1"/>
-    <col min="94" max="94" width="23.109375" customWidth="1"/>
-    <col min="95" max="95" width="7.6640625" customWidth="1"/>
-    <col min="96" max="96" width="18.6640625" customWidth="1"/>
-    <col min="97" max="97" width="10.77734375" customWidth="1"/>
-    <col min="98" max="98" width="14.109375" customWidth="1"/>
+    <col min="79" max="79" width="11.875" customWidth="1"/>
+    <col min="80" max="80" width="10.75" customWidth="1"/>
+    <col min="81" max="81" width="11.875" customWidth="1"/>
+    <col min="82" max="83" width="7.625" customWidth="1"/>
+    <col min="84" max="85" width="17.5" customWidth="1"/>
+    <col min="86" max="86" width="16.5" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="14.125" customWidth="1"/>
+    <col min="89" max="89" width="11.875" customWidth="1"/>
+    <col min="90" max="90" width="10.75" customWidth="1"/>
+    <col min="91" max="91" width="11.875" customWidth="1"/>
+    <col min="92" max="92" width="19.75" customWidth="1"/>
+    <col min="93" max="93" width="16.5" customWidth="1"/>
+    <col min="94" max="94" width="23.125" customWidth="1"/>
+    <col min="95" max="95" width="7.625" customWidth="1"/>
+    <col min="96" max="96" width="18.625" customWidth="1"/>
+    <col min="97" max="97" width="10.75" customWidth="1"/>
+    <col min="98" max="98" width="14.125" customWidth="1"/>
     <col min="99" max="99" width="13" customWidth="1"/>
-    <col min="100" max="100" width="16.44140625" customWidth="1"/>
+    <col min="100" max="100" width="16.5" customWidth="1"/>
     <col min="101" max="102" width="13" customWidth="1"/>
-    <col min="103" max="103" width="9.6640625" customWidth="1"/>
-    <col min="104" max="104" width="16.44140625" customWidth="1"/>
-    <col min="105" max="105" width="14.109375" customWidth="1"/>
-    <col min="106" max="106" width="11.88671875" customWidth="1"/>
-    <col min="107" max="108" width="15.21875" customWidth="1"/>
-    <col min="109" max="109" width="9.6640625" customWidth="1"/>
+    <col min="103" max="103" width="9.625" customWidth="1"/>
+    <col min="104" max="104" width="16.5" customWidth="1"/>
+    <col min="105" max="105" width="14.125" customWidth="1"/>
+    <col min="106" max="106" width="11.875" customWidth="1"/>
+    <col min="107" max="108" width="15.25" customWidth="1"/>
+    <col min="109" max="109" width="9.625" customWidth="1"/>
     <col min="110" max="110" width="13" customWidth="1"/>
-    <col min="111" max="111" width="9.6640625" customWidth="1"/>
-    <col min="112" max="112" width="15.21875" customWidth="1"/>
-    <col min="113" max="113" width="17.44140625" customWidth="1"/>
-    <col min="114" max="114" width="14.109375" customWidth="1"/>
-    <col min="115" max="115" width="19.77734375" customWidth="1"/>
-    <col min="116" max="116" width="16.44140625" customWidth="1"/>
-    <col min="117" max="117" width="20.88671875" customWidth="1"/>
-    <col min="118" max="118" width="24.21875" customWidth="1"/>
-    <col min="119" max="119" width="16.44140625" customWidth="1"/>
-    <col min="120" max="120" width="17.44140625" customWidth="1"/>
+    <col min="111" max="111" width="9.625" customWidth="1"/>
+    <col min="112" max="112" width="15.25" customWidth="1"/>
+    <col min="113" max="113" width="17.5" customWidth="1"/>
+    <col min="114" max="114" width="14.125" customWidth="1"/>
+    <col min="115" max="115" width="19.75" customWidth="1"/>
+    <col min="116" max="116" width="16.5" customWidth="1"/>
+    <col min="117" max="117" width="20.875" customWidth="1"/>
+    <col min="118" max="118" width="24.25" customWidth="1"/>
+    <col min="119" max="119" width="16.5" customWidth="1"/>
+    <col min="120" max="120" width="17.5" customWidth="1"/>
     <col min="121" max="121" width="22" customWidth="1"/>
-    <col min="122" max="123" width="20.88671875" customWidth="1"/>
-    <col min="124" max="124" width="19.77734375" customWidth="1"/>
-    <col min="125" max="125" width="17.44140625" customWidth="1"/>
-    <col min="126" max="126" width="20.88671875" customWidth="1"/>
-    <col min="127" max="127" width="18.6640625" customWidth="1"/>
-    <col min="128" max="128" width="8.6640625" customWidth="1"/>
-    <col min="129" max="129" width="15.21875" customWidth="1"/>
+    <col min="122" max="123" width="20.875" customWidth="1"/>
+    <col min="124" max="124" width="19.75" customWidth="1"/>
+    <col min="125" max="125" width="17.5" customWidth="1"/>
+    <col min="126" max="126" width="20.875" customWidth="1"/>
+    <col min="127" max="127" width="18.625" customWidth="1"/>
+    <col min="128" max="128" width="8.625" customWidth="1"/>
+    <col min="129" max="129" width="15.25" customWidth="1"/>
     <col min="130" max="130" width="13" customWidth="1"/>
-    <col min="131" max="131" width="16.44140625" customWidth="1"/>
-    <col min="132" max="132" width="10.77734375" customWidth="1"/>
-    <col min="133" max="133" width="11.88671875" customWidth="1"/>
-    <col min="134" max="134" width="15.21875" customWidth="1"/>
-    <col min="135" max="135" width="16.44140625" customWidth="1"/>
+    <col min="131" max="131" width="16.5" customWidth="1"/>
+    <col min="132" max="132" width="10.75" customWidth="1"/>
+    <col min="133" max="133" width="11.875" customWidth="1"/>
+    <col min="134" max="134" width="15.25" customWidth="1"/>
+    <col min="135" max="135" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>255</v>
       </c>
@@ -5011,7 +5035,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>389</v>
       </c>
@@ -5349,10 +5373,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
